--- a/data2.xlsx
+++ b/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Desktop/Uni/6. sem/Bachelorprojekt/bachelor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8528CA9-8713-0B45-93EE-61747FCE796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB06984-6ECC-8045-A0B7-3E1BE40DB00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14540" windowHeight="17500" xr2:uid="{21EF8D0E-709A-5849-95F5-8BD874E64F79}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{21EF8D0E-709A-5849-95F5-8BD874E64F79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -993,6 +993,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1012,13 +1019,6 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1337,14 +1337,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}" name="Tabel22" displayName="Tabel22" ref="A1:I313" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I313" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}" name="Tabel22" displayName="Tabel22" ref="A1:I313" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I313" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I313">
     <sortCondition ref="A1:A313"/>
   </sortState>
@@ -1710,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947D4C51-CDC5-8D4D-A9A9-ABBAE8089D2A}">
   <dimension ref="A1:L261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9705,8 +9699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2414F1D7-E339-A544-9A1C-306EF1AAE73C}">
   <dimension ref="A1:P313"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H323" sqref="H323"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9750,7 +9744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -9770,15 +9764,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="6">
-        <f>71/46</f>
-        <v>1.5434782608695652</v>
+        <f>71-32</f>
+        <v>39</v>
       </c>
       <c r="H2" s="6">
         <v>15616</v>
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -9798,8 +9792,8 @@
         <v>2</v>
       </c>
       <c r="G3" s="6">
-        <f>83/46</f>
-        <v>1.8043478260869565</v>
+        <f>83-58</f>
+        <v>25</v>
       </c>
       <c r="H3" s="6">
         <v>25399</v>
@@ -9812,7 +9806,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -9832,8 +9826,8 @@
         <v>3</v>
       </c>
       <c r="G4" s="6">
-        <f>69/46</f>
-        <v>1.5</v>
+        <f>69-42</f>
+        <v>27</v>
       </c>
       <c r="H4" s="6">
         <v>15507</v>
@@ -9849,7 +9843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -9869,15 +9863,15 @@
         <v>4</v>
       </c>
       <c r="G5" s="6">
-        <f>76/46</f>
-        <v>1.6521739130434783</v>
+        <f>76-54</f>
+        <v>22</v>
       </c>
       <c r="H5" s="6">
         <v>23194</v>
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -9897,15 +9891,15 @@
         <v>5</v>
       </c>
       <c r="G6" s="6">
-        <f>77/46</f>
-        <v>1.673913043478261</v>
+        <f>77-51</f>
+        <v>26</v>
       </c>
       <c r="H6" s="6">
         <v>17682</v>
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -9925,15 +9919,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="6">
-        <f>69/46</f>
-        <v>1.5</v>
+        <f>69-50</f>
+        <v>19</v>
       </c>
       <c r="H7" s="6">
         <v>23275</v>
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -9953,15 +9947,15 @@
         <v>7</v>
       </c>
       <c r="G8" s="6">
-        <f>81/46</f>
-        <v>1.7608695652173914</v>
+        <f>81-70</f>
+        <v>11</v>
       </c>
       <c r="H8" s="6">
         <v>27299</v>
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -9981,15 +9975,15 @@
         <v>8</v>
       </c>
       <c r="G9" s="6">
-        <f>65/46</f>
-        <v>1.4130434782608696</v>
+        <f>65-61</f>
+        <v>4</v>
       </c>
       <c r="H9" s="6">
         <v>14931</v>
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -10009,15 +10003,15 @@
         <v>9</v>
       </c>
       <c r="G10" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-48</f>
+        <v>14</v>
       </c>
       <c r="H10" s="6">
         <v>12439</v>
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -10037,15 +10031,15 @@
         <v>10</v>
       </c>
       <c r="G11" s="6">
-        <f>76/46</f>
-        <v>1.6521739130434783</v>
+        <f>76-71</f>
+        <v>5</v>
       </c>
       <c r="H11" s="6">
         <v>23666</v>
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -10065,15 +10059,15 @@
         <v>11</v>
       </c>
       <c r="G12" s="6">
-        <f>52/46</f>
-        <v>1.1304347826086956</v>
+        <f>52-51</f>
+        <v>1</v>
       </c>
       <c r="H12" s="6">
         <v>21169</v>
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -10095,15 +10089,15 @@
         <v>12</v>
       </c>
       <c r="G13" s="6">
-        <f>68/46</f>
-        <v>1.4782608695652173</v>
+        <f>68-68</f>
+        <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>16269</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10123,15 +10117,15 @@
         <v>13</v>
       </c>
       <c r="G14" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-68</f>
+        <v>-6</v>
       </c>
       <c r="H14" s="6">
         <v>19615</v>
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -10151,15 +10145,15 @@
         <v>14</v>
       </c>
       <c r="G15" s="6">
-        <f>77/46</f>
-        <v>1.673913043478261</v>
+        <f>77-71</f>
+        <v>6</v>
       </c>
       <c r="H15" s="6">
         <v>13152</v>
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -10179,15 +10173,15 @@
         <v>15</v>
       </c>
       <c r="G16" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-65</f>
+        <v>-3</v>
       </c>
       <c r="H16" s="6">
         <v>14605</v>
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -10203,15 +10197,15 @@
         <v>16</v>
       </c>
       <c r="G17" s="6">
-        <f>53/46</f>
-        <v>1.1521739130434783</v>
+        <f>53-60</f>
+        <v>-7</v>
       </c>
       <c r="H17" s="6">
         <v>15707</v>
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -10231,15 +10225,15 @@
         <v>17</v>
       </c>
       <c r="G18" s="6">
-        <f>55/46</f>
-        <v>1.1956521739130435</v>
+        <f>55-66</f>
+        <v>-11</v>
       </c>
       <c r="H18" s="6">
         <v>11856</v>
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -10259,15 +10253,15 @@
         <v>18</v>
       </c>
       <c r="G19" s="6">
-        <f>54/46</f>
-        <v>1.173913043478261</v>
+        <f>54-58</f>
+        <v>-4</v>
       </c>
       <c r="H19" s="6">
         <v>16310</v>
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -10287,15 +10281,15 @@
         <v>19</v>
       </c>
       <c r="G20" s="6">
-        <f>58/46</f>
-        <v>1.2608695652173914</v>
+        <f>58-71</f>
+        <v>-13</v>
       </c>
       <c r="H20" s="6">
         <v>26023</v>
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -10315,15 +10309,15 @@
         <v>20</v>
       </c>
       <c r="G21" s="6">
-        <f>44/46</f>
-        <v>0.95652173913043481</v>
+        <f>44-69</f>
+        <v>-25</v>
       </c>
       <c r="H21" s="6">
         <v>15351</v>
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -10343,15 +10337,15 @@
         <v>21</v>
       </c>
       <c r="G22" s="6">
-        <f>55/46</f>
-        <v>1.1956521739130435</v>
+        <f>55-81</f>
+        <v>-26</v>
       </c>
       <c r="H22" s="6">
         <v>10258</v>
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -10371,15 +10365,15 @@
         <v>22</v>
       </c>
       <c r="G23" s="6">
-        <f>54/46</f>
-        <v>1.173913043478261</v>
+        <f>54-79</f>
+        <v>-25</v>
       </c>
       <c r="H23" s="6">
         <v>11768</v>
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -10399,15 +10393,15 @@
         <v>23</v>
       </c>
       <c r="G24" s="6">
-        <f>44/46</f>
-        <v>0.95652173913043481</v>
+        <f>44-79</f>
+        <v>-35</v>
       </c>
       <c r="H24" s="6">
         <v>20632</v>
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -10427,15 +10421,15 @@
         <v>24</v>
       </c>
       <c r="G25" s="6">
-        <f>43/46</f>
-        <v>0.93478260869565222</v>
+        <f>43-87</f>
+        <v>-44</v>
       </c>
       <c r="H25" s="6">
         <v>5548</v>
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
@@ -10455,15 +10449,15 @@
         <v>1</v>
       </c>
       <c r="G26" s="6">
-        <f>69/46</f>
-        <v>1.5</v>
+        <f>69-41</f>
+        <v>28</v>
       </c>
       <c r="H26" s="6">
         <v>19219</v>
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -10483,15 +10477,15 @@
         <v>2</v>
       </c>
       <c r="G27" s="6">
-        <f>85/46</f>
-        <v>1.8478260869565217</v>
+        <f>85-46</f>
+        <v>39</v>
       </c>
       <c r="H27" s="6">
         <v>26420</v>
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -10511,15 +10505,15 @@
         <v>3</v>
       </c>
       <c r="G28" s="6">
-        <f>81/46</f>
-        <v>1.7608695652173914</v>
+        <f>81-48</f>
+        <v>33</v>
       </c>
       <c r="H28" s="6">
         <v>30923</v>
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
@@ -10539,15 +10533,15 @@
         <v>4</v>
       </c>
       <c r="G29" s="6">
-        <f>78/46</f>
-        <v>1.6956521739130435</v>
+        <f>78-51</f>
+        <v>27</v>
       </c>
       <c r="H29" s="6">
         <v>19127</v>
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -10567,15 +10561,15 @@
         <v>5</v>
       </c>
       <c r="G30" s="6">
-        <f>79/46</f>
-        <v>1.7173913043478262</v>
+        <f>79-59</f>
+        <v>20</v>
       </c>
       <c r="H30" s="6">
         <v>12764</v>
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
@@ -10595,15 +10589,15 @@
         <v>6</v>
       </c>
       <c r="G31" s="6">
-        <f>66/46</f>
-        <v>1.4347826086956521</v>
+        <f>66-53</f>
+        <v>13</v>
       </c>
       <c r="H31" s="6">
         <v>22100</v>
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -10623,15 +10617,15 @@
         <v>7</v>
       </c>
       <c r="G32" s="6">
-        <f>52/46</f>
-        <v>1.1304347826086956</v>
+        <f>52-51</f>
+        <v>1</v>
       </c>
       <c r="H32" s="6">
         <v>17558</v>
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
@@ -10651,15 +10645,15 @@
         <v>8</v>
       </c>
       <c r="G33" s="6">
-        <f>47/46</f>
-        <v>1.0217391304347827</v>
+        <f>47-44</f>
+        <v>3</v>
       </c>
       <c r="H33" s="6">
         <v>18790</v>
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
@@ -10679,15 +10673,15 @@
         <v>9</v>
       </c>
       <c r="G34" s="6">
-        <f>66/46</f>
-        <v>1.4347826086956521</v>
+        <f>66-55</f>
+        <v>11</v>
       </c>
       <c r="H34" s="6">
         <v>23037</v>
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
@@ -10707,15 +10701,15 @@
         <v>10</v>
       </c>
       <c r="G35" s="6">
-        <f>52/46</f>
-        <v>1.1304347826086956</v>
+        <f>52-52</f>
+        <v>0</v>
       </c>
       <c r="H35" s="6">
         <v>20028</v>
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
@@ -10735,15 +10729,15 @@
         <v>11</v>
       </c>
       <c r="G36" s="6">
-        <f>56/46</f>
-        <v>1.2173913043478262</v>
+        <f>56-64</f>
+        <v>-8</v>
       </c>
       <c r="H36" s="6">
         <v>12704</v>
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
@@ -10763,15 +10757,15 @@
         <v>12</v>
       </c>
       <c r="G37" s="6">
-        <f>50/46</f>
-        <v>1.0869565217391304</v>
+        <f>50-58</f>
+        <v>-8</v>
       </c>
       <c r="H37" s="6">
         <v>26020</v>
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
@@ -10791,15 +10785,15 @@
         <v>13</v>
       </c>
       <c r="G38" s="6">
-        <f>61/46</f>
-        <v>1.326086956521739</v>
+        <f>61-58</f>
+        <v>3</v>
       </c>
       <c r="H38" s="6">
         <v>14048</v>
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
@@ -10819,15 +10813,15 @@
         <v>14</v>
       </c>
       <c r="G39" s="6">
-        <f>65/46</f>
-        <v>1.4130434782608696</v>
+        <f>65-68</f>
+        <v>-3</v>
       </c>
       <c r="H39" s="6">
         <v>23283</v>
       </c>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
@@ -10847,15 +10841,15 @@
         <v>15</v>
       </c>
       <c r="G40" s="6">
-        <f>69/46</f>
-        <v>1.5</v>
+        <f>69-77</f>
+        <v>-8</v>
       </c>
       <c r="H40" s="6">
         <v>18267</v>
       </c>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
@@ -10875,15 +10869,15 @@
         <v>16</v>
       </c>
       <c r="G41" s="6">
-        <f>55/46</f>
-        <v>1.1956521739130435</v>
+        <f>55-57</f>
+        <v>-2</v>
       </c>
       <c r="H41" s="6">
         <v>11484</v>
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>10</v>
       </c>
@@ -10903,15 +10897,15 @@
         <v>17</v>
       </c>
       <c r="G42" s="6">
-        <f>46/46</f>
-        <v>1</v>
+        <f>46-51</f>
+        <v>-5</v>
       </c>
       <c r="H42" s="6">
         <v>15219</v>
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>10</v>
       </c>
@@ -10931,15 +10925,15 @@
         <v>18</v>
       </c>
       <c r="G43" s="6">
-        <f>67/46</f>
-        <v>1.4565217391304348</v>
+        <f>67-77</f>
+        <v>-10</v>
       </c>
       <c r="H43" s="6">
         <v>9111</v>
       </c>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
@@ -10959,15 +10953,15 @@
         <v>19</v>
       </c>
       <c r="G44" s="6">
-        <f>48/46</f>
-        <v>1.0434782608695652</v>
+        <f>48-63</f>
+        <v>-15</v>
       </c>
       <c r="H44" s="6">
         <v>21970</v>
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
@@ -10987,15 +10981,15 @@
         <v>20</v>
       </c>
       <c r="G45" s="6">
-        <f>44/46</f>
-        <v>0.95652173913043481</v>
+        <f>44-68</f>
+        <v>-24</v>
       </c>
       <c r="H45" s="6">
         <v>13846</v>
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>10</v>
       </c>
@@ -11015,15 +11009,15 @@
         <v>21</v>
       </c>
       <c r="G46" s="6">
-        <f>49/46</f>
-        <v>1.0652173913043479</v>
+        <f>49-74</f>
+        <v>-25</v>
       </c>
       <c r="H46" s="6">
         <v>10332</v>
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>10</v>
       </c>
@@ -11039,15 +11033,15 @@
         <v>22</v>
       </c>
       <c r="G47" s="6">
-        <f>50/46</f>
-        <v>1.0869565217391304</v>
+        <f>50-59</f>
+        <v>-9</v>
       </c>
       <c r="H47" s="6">
         <v>14992</v>
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>10</v>
       </c>
@@ -11063,15 +11057,15 @@
         <v>23</v>
       </c>
       <c r="G48" s="6">
-        <f>41/46</f>
-        <v>0.89130434782608692</v>
+        <f>41-65</f>
+        <v>-24</v>
       </c>
       <c r="H48" s="6">
         <v>15119</v>
       </c>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>10</v>
       </c>
@@ -11091,15 +11085,15 @@
         <v>24</v>
       </c>
       <c r="G49" s="6">
-        <f>43/46</f>
-        <v>0.93478260869565222</v>
+        <f>43-80</f>
+        <v>-37</v>
       </c>
       <c r="H49" s="6">
         <v>9341</v>
       </c>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>13</v>
       </c>
@@ -11119,15 +11113,15 @@
         <v>1</v>
       </c>
       <c r="G50" s="6">
-        <f>72/46</f>
-        <v>1.5652173913043479</v>
+        <f>72-45</f>
+        <v>27</v>
       </c>
       <c r="H50" s="6">
         <v>22999</v>
       </c>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
@@ -11147,15 +11141,15 @@
         <v>2</v>
       </c>
       <c r="G51" s="6">
-        <f>61/46</f>
-        <v>1.326086956521739</v>
+        <f>61-52</f>
+        <v>9</v>
       </c>
       <c r="H51" s="6">
         <v>17369</v>
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>13</v>
       </c>
@@ -11175,15 +11169,15 @@
         <v>3</v>
       </c>
       <c r="G52" s="6">
-        <f>85/46</f>
-        <v>1.8478260869565217</v>
+        <f>85-58</f>
+        <v>27</v>
       </c>
       <c r="H52" s="6">
         <v>13454</v>
       </c>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
@@ -11203,15 +11197,15 @@
         <v>4</v>
       </c>
       <c r="G53" s="6">
-        <f>69/46</f>
-        <v>1.5</v>
+        <f>69-43</f>
+        <v>26</v>
       </c>
       <c r="H53" s="6">
         <v>26236</v>
       </c>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>13</v>
       </c>
@@ -11231,15 +11225,15 @@
         <v>5</v>
       </c>
       <c r="G54" s="6">
-        <f>73/46</f>
-        <v>1.5869565217391304</v>
+        <f>73-62</f>
+        <v>11</v>
       </c>
       <c r="H54" s="6">
         <v>17284</v>
       </c>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>13</v>
       </c>
@@ -11259,15 +11253,15 @@
         <v>6</v>
       </c>
       <c r="G55" s="6">
-        <f>71/46</f>
-        <v>1.5434782608695652</v>
+        <f>71-48</f>
+        <v>23</v>
       </c>
       <c r="H55" s="6">
         <v>22055</v>
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -11287,15 +11281,15 @@
         <v>7</v>
       </c>
       <c r="G56" s="6">
-        <f>69/46</f>
-        <v>1.5</v>
+        <f>69-61</f>
+        <v>8</v>
       </c>
       <c r="H56" s="6">
         <v>18034</v>
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>13</v>
       </c>
@@ -11315,15 +11309,15 @@
         <v>8</v>
       </c>
       <c r="G57" s="6">
-        <f>63/46</f>
-        <v>1.3695652173913044</v>
+        <f>63-59</f>
+        <v>4</v>
       </c>
       <c r="H57" s="6">
         <v>23082</v>
       </c>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>13</v>
       </c>
@@ -11343,15 +11337,15 @@
         <v>9</v>
       </c>
       <c r="G58" s="6">
-        <f>65/46</f>
-        <v>1.4130434782608696</v>
+        <f>65-59</f>
+        <v>6</v>
       </c>
       <c r="H58" s="6">
         <v>18499</v>
       </c>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
@@ -11371,15 +11365,15 @@
         <v>10</v>
       </c>
       <c r="G59" s="6">
-        <f>65/46</f>
-        <v>1.4130434782608696</v>
+        <f>65-62</f>
+        <v>3</v>
       </c>
       <c r="H59" s="6">
         <v>23228</v>
       </c>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>13</v>
       </c>
@@ -11399,15 +11393,15 @@
         <v>11</v>
       </c>
       <c r="G60" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-60</f>
+        <v>2</v>
       </c>
       <c r="H60" s="6">
         <v>12928</v>
       </c>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
@@ -11427,15 +11421,15 @@
         <v>12</v>
       </c>
       <c r="G61" s="6">
-        <f>63/46</f>
-        <v>1.3695652173913044</v>
+        <f>63-69</f>
+        <v>-6</v>
       </c>
       <c r="H61" s="6">
         <v>16703</v>
       </c>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
@@ -11455,15 +11449,15 @@
         <v>13</v>
       </c>
       <c r="G62" s="6">
-        <f>57/46</f>
-        <v>1.2391304347826086</v>
+        <f>57-66</f>
+        <v>-9</v>
       </c>
       <c r="H62" s="6">
         <v>21572</v>
       </c>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>13</v>
       </c>
@@ -11483,15 +11477,15 @@
         <v>14</v>
       </c>
       <c r="G63" s="6">
-        <f>48/46</f>
-        <v>1.0434782608695652</v>
+        <f>48-61</f>
+        <v>-13</v>
       </c>
       <c r="H63" s="6">
         <v>17526</v>
       </c>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>13</v>
       </c>
@@ -11511,15 +11505,15 @@
         <v>15</v>
       </c>
       <c r="G64" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-63</f>
+        <v>-1</v>
       </c>
       <c r="H64" s="6">
         <v>13917</v>
       </c>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>13</v>
       </c>
@@ -11539,15 +11533,15 @@
         <v>16</v>
       </c>
       <c r="G65" s="6">
-        <f>61/46</f>
-        <v>1.326086956521739</v>
+        <f>61-70</f>
+        <v>-9</v>
       </c>
       <c r="H65" s="6">
         <v>16794</v>
       </c>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>13</v>
       </c>
@@ -11567,15 +11561,15 @@
         <v>17</v>
       </c>
       <c r="G66" s="6">
-        <f>55/46</f>
-        <v>1.1956521739130435</v>
+        <f>55-62</f>
+        <v>-7</v>
       </c>
       <c r="H66" s="6">
         <v>14997</v>
       </c>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
@@ -11595,15 +11589,15 @@
         <v>18</v>
       </c>
       <c r="G67" s="6">
-        <f>53/46</f>
-        <v>1.1521739130434783</v>
+        <f>53-61</f>
+        <v>-8</v>
       </c>
       <c r="H67" s="6">
         <v>24078</v>
       </c>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>13</v>
       </c>
@@ -11623,15 +11617,15 @@
         <v>19</v>
       </c>
       <c r="G68" s="6">
-        <f>53/46</f>
-        <v>1.1521739130434783</v>
+        <f>53-73</f>
+        <v>-20</v>
       </c>
       <c r="H68" s="6">
         <v>14978</v>
       </c>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>13</v>
       </c>
@@ -11651,15 +11645,15 @@
         <v>20</v>
       </c>
       <c r="G69" s="6">
-        <f>51/46</f>
-        <v>1.1086956521739131</v>
+        <f>51-62</f>
+        <v>-11</v>
       </c>
       <c r="H69" s="6">
         <v>10559</v>
       </c>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>13</v>
       </c>
@@ -11679,15 +11673,15 @@
         <v>21</v>
       </c>
       <c r="G70" s="6">
-        <f>56/46</f>
-        <v>1.2173913043478262</v>
+        <f>56-70</f>
+        <v>-14</v>
       </c>
       <c r="H70" s="6">
         <v>10207</v>
       </c>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>13</v>
       </c>
@@ -11707,15 +11701,15 @@
         <v>22</v>
       </c>
       <c r="G71" s="6">
-        <f>66/46</f>
-        <v>1.4347826086956521</v>
+        <f>66-75</f>
+        <v>-9</v>
       </c>
       <c r="H71" s="6">
         <v>8215</v>
       </c>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>13</v>
       </c>
@@ -11735,15 +11729,15 @@
         <v>23</v>
       </c>
       <c r="G72" s="6">
-        <f>55/46</f>
-        <v>1.1956521739130435</v>
+        <f>55-69</f>
+        <v>-14</v>
       </c>
       <c r="H72" s="6">
         <v>21773</v>
       </c>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>13</v>
       </c>
@@ -11763,15 +11757,15 @@
         <v>24</v>
       </c>
       <c r="G73" s="6">
-        <f>59/46</f>
-        <v>1.2826086956521738</v>
+        <f>59-84</f>
+        <v>-25</v>
       </c>
       <c r="H73" s="6">
         <v>13348</v>
       </c>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>14</v>
       </c>
@@ -11791,15 +11785,15 @@
         <v>1</v>
       </c>
       <c r="G74" s="6">
-        <f>83/46</f>
-        <v>1.8043478260869565</v>
+        <f>83-43</f>
+        <v>40</v>
       </c>
       <c r="H74" s="6">
         <v>24995</v>
       </c>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>14</v>
       </c>
@@ -11819,15 +11813,15 @@
         <v>2</v>
       </c>
       <c r="G75" s="6">
-        <f>72/46</f>
-        <v>1.5652173913043479</v>
+        <f>72-37</f>
+        <v>35</v>
       </c>
       <c r="H75" s="6">
         <v>13719</v>
       </c>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>14</v>
       </c>
@@ -11847,15 +11841,15 @@
         <v>3</v>
       </c>
       <c r="G76" s="6">
-        <f>84/46</f>
-        <v>1.826086956521739</v>
+        <f>84-52</f>
+        <v>32</v>
       </c>
       <c r="H76" s="6">
         <v>24936</v>
       </c>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
@@ -11875,15 +11869,15 @@
         <v>4</v>
       </c>
       <c r="G77" s="6">
-        <f>60/46</f>
-        <v>1.3043478260869565</v>
+        <f>60-44</f>
+        <v>16</v>
       </c>
       <c r="H77" s="6">
         <v>16656</v>
       </c>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>14</v>
       </c>
@@ -11903,15 +11897,15 @@
         <v>5</v>
       </c>
       <c r="G78" s="6">
-        <f>61/46</f>
-        <v>1.326086956521739</v>
+        <f>61-48</f>
+        <v>13</v>
       </c>
       <c r="H78" s="6">
         <v>15177</v>
       </c>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>14</v>
       </c>
@@ -11931,15 +11925,15 @@
         <v>6</v>
       </c>
       <c r="G79" s="6">
-        <f>55/46</f>
-        <v>1.1956521739130435</v>
+        <f>55-40</f>
+        <v>15</v>
       </c>
       <c r="H79" s="6">
         <v>27283</v>
       </c>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>14</v>
       </c>
@@ -11959,15 +11953,15 @@
         <v>7</v>
       </c>
       <c r="G80" s="6">
-        <f>70/46</f>
-        <v>1.5217391304347827</v>
+        <f>70-56</f>
+        <v>14</v>
       </c>
       <c r="H80" s="6">
         <v>19171</v>
       </c>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>14</v>
       </c>
@@ -11987,15 +11981,15 @@
         <v>8</v>
       </c>
       <c r="G81" s="6">
-        <f>70/46</f>
-        <v>1.5217391304347827</v>
+        <f>70-62</f>
+        <v>8</v>
       </c>
       <c r="H81" s="6">
         <v>14962</v>
       </c>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>14</v>
       </c>
@@ -12015,15 +12009,15 @@
         <v>9</v>
       </c>
       <c r="G82" s="6">
-        <f>60/46</f>
-        <v>1.3043478260869565</v>
+        <f>60-54</f>
+        <v>6</v>
       </c>
       <c r="H82" s="6">
         <v>17108</v>
       </c>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>14</v>
       </c>
@@ -12043,15 +12037,15 @@
         <v>10</v>
       </c>
       <c r="G83" s="6">
-        <f>67/46</f>
-        <v>1.4565217391304348</v>
+        <f>67-66</f>
+        <v>1</v>
       </c>
       <c r="H83" s="6">
         <v>9952</v>
       </c>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>14</v>
       </c>
@@ -12071,15 +12065,15 @@
         <v>11</v>
       </c>
       <c r="G84" s="6">
-        <f>67/46</f>
-        <v>1.4565217391304348</v>
+        <f>67-64</f>
+        <v>3</v>
       </c>
       <c r="H84" s="6">
         <v>22630</v>
       </c>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
@@ -12099,15 +12093,15 @@
         <v>12</v>
       </c>
       <c r="G85" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-50</f>
+        <v>12</v>
       </c>
       <c r="H85" s="6">
         <v>15748</v>
       </c>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>14</v>
       </c>
@@ -12127,15 +12121,15 @@
         <v>13</v>
       </c>
       <c r="G86" s="6">
-        <f>74/46</f>
-        <v>1.6086956521739131</v>
+        <f>74-64</f>
+        <v>10</v>
       </c>
       <c r="H86" s="6">
         <v>15512</v>
       </c>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>14</v>
       </c>
@@ -12155,15 +12149,15 @@
         <v>14</v>
       </c>
       <c r="G87" s="6">
-        <f>59/46</f>
-        <v>1.2826086956521738</v>
+        <f>59-60</f>
+        <v>-1</v>
       </c>
       <c r="H87" s="6">
         <v>16141</v>
       </c>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>14</v>
       </c>
@@ -12183,15 +12177,15 @@
         <v>15</v>
       </c>
       <c r="G88" s="6">
-        <f>59/46</f>
-        <v>1.2826086956521738</v>
+        <f>59-67</f>
+        <v>-8</v>
       </c>
       <c r="H88" s="6">
         <v>25092</v>
       </c>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>14</v>
       </c>
@@ -12211,15 +12205,15 @@
         <v>16</v>
       </c>
       <c r="G89" s="6">
-        <f>63/46</f>
-        <v>1.3695652173913044</v>
+        <f>63-65</f>
+        <v>-2</v>
       </c>
       <c r="H89" s="6">
         <v>21239</v>
       </c>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
@@ -12239,15 +12233,15 @@
         <v>17</v>
       </c>
       <c r="G90" s="6">
-        <f>58/46</f>
-        <v>1.2608695652173914</v>
+        <f>58-65</f>
+        <v>-7</v>
       </c>
       <c r="H90" s="6">
         <v>14213</v>
       </c>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>14</v>
       </c>
@@ -12267,15 +12261,15 @@
         <v>18</v>
       </c>
       <c r="G91" s="6">
-        <f>41/46</f>
-        <v>0.89130434782608692</v>
+        <f>41-61</f>
+        <v>-20</v>
       </c>
       <c r="H91" s="6">
         <v>16134</v>
       </c>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>14</v>
       </c>
@@ -12295,15 +12289,15 @@
         <v>19</v>
       </c>
       <c r="G92" s="6">
-        <f>46/46</f>
-        <v>1</v>
+        <f>46-74</f>
+        <v>-28</v>
       </c>
       <c r="H92" s="6">
         <v>11063</v>
       </c>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>14</v>
       </c>
@@ -12323,15 +12317,15 @@
         <v>20</v>
       </c>
       <c r="G93" s="6">
-        <f>38/46</f>
-        <v>0.82608695652173914</v>
+        <f>38-66</f>
+        <v>-28</v>
       </c>
       <c r="H93" s="6">
         <v>14217</v>
       </c>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>14</v>
       </c>
@@ -12351,15 +12345,15 @@
         <v>21</v>
       </c>
       <c r="G94" s="6">
-        <f>58/46</f>
-        <v>1.2608695652173914</v>
+        <f>58-74</f>
+        <v>-16</v>
       </c>
       <c r="H94" s="6">
         <v>15458</v>
       </c>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>14</v>
       </c>
@@ -12379,15 +12373,15 @@
         <v>22</v>
       </c>
       <c r="G95" s="6">
-        <f>39/46</f>
-        <v>0.84782608695652173</v>
+        <f>39-70</f>
+        <v>-31</v>
       </c>
       <c r="H95" s="6">
         <v>9041</v>
       </c>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>14</v>
       </c>
@@ -12407,15 +12401,15 @@
         <v>23</v>
       </c>
       <c r="G96" s="6">
-        <f>44/46</f>
-        <v>0.95652173913043481</v>
+        <f>44-77</f>
+        <v>-33</v>
       </c>
       <c r="H96" s="6">
         <v>11557</v>
       </c>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>14</v>
       </c>
@@ -12431,15 +12425,15 @@
         <v>24</v>
       </c>
       <c r="G97" s="6">
-        <f>44/46</f>
-        <v>0.95652173913043481</v>
+        <f>44-75</f>
+        <v>-31</v>
       </c>
       <c r="H97" s="6">
         <v>6616</v>
       </c>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>15</v>
       </c>
@@ -12459,15 +12453,15 @@
         <v>1</v>
       </c>
       <c r="G98" s="6">
-        <f>98/46</f>
-        <v>2.1304347826086958</v>
+        <f>98-45</f>
+        <v>53</v>
       </c>
       <c r="H98" s="6">
         <v>10265</v>
       </c>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>15</v>
       </c>
@@ -12487,15 +12481,15 @@
         <v>2</v>
       </c>
       <c r="G99" s="6">
-        <f>91/46</f>
-        <v>1.9782608695652173</v>
+        <f>91-50</f>
+        <v>41</v>
       </c>
       <c r="H99" s="6">
         <v>16664</v>
       </c>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>15</v>
       </c>
@@ -12515,15 +12509,15 @@
         <v>3</v>
       </c>
       <c r="G100" s="6">
-        <f>88/46</f>
-        <v>1.9130434782608696</v>
+        <f>88-48</f>
+        <v>40</v>
       </c>
       <c r="H100" s="6">
         <v>26169</v>
       </c>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>15</v>
       </c>
@@ -12543,15 +12537,15 @@
         <v>4</v>
       </c>
       <c r="G101" s="6">
-        <f>68/46</f>
-        <v>1.4782608695652173</v>
+        <f>68-37</f>
+        <v>31</v>
       </c>
       <c r="H101" s="6">
         <v>19562</v>
       </c>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>15</v>
       </c>
@@ -12571,15 +12565,15 @@
         <v>5</v>
       </c>
       <c r="G102" s="6">
-        <f>78/46</f>
-        <v>1.6956521739130435</v>
+        <f>78-59</f>
+        <v>19</v>
       </c>
       <c r="H102" s="6">
         <v>10822</v>
       </c>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>15</v>
       </c>
@@ -12599,15 +12593,15 @@
         <v>6</v>
       </c>
       <c r="G103" s="6">
-        <f>72/46</f>
-        <v>1.5652173913043479</v>
+        <f>72-54</f>
+        <v>18</v>
       </c>
       <c r="H103" s="6">
         <v>19603</v>
       </c>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>15</v>
       </c>
@@ -12627,15 +12621,15 @@
         <v>7</v>
       </c>
       <c r="G104" s="6">
-        <f>70/46</f>
-        <v>1.5217391304347827</v>
+        <f>70-56</f>
+        <v>14</v>
       </c>
       <c r="H104" s="6">
         <v>22419</v>
       </c>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>15</v>
       </c>
@@ -12655,15 +12649,15 @@
         <v>8</v>
       </c>
       <c r="G105" s="6">
-        <f>85/46</f>
-        <v>1.8478260869565217</v>
+        <f>85-56</f>
+        <v>29</v>
       </c>
       <c r="H105" s="6">
         <v>29232</v>
       </c>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>15</v>
       </c>
@@ -12683,15 +12677,15 @@
         <v>9</v>
       </c>
       <c r="G106" s="6">
-        <f>66/46</f>
-        <v>1.4347826086956521</v>
+        <f>66-59</f>
+        <v>7</v>
       </c>
       <c r="H106" s="6">
         <v>14911</v>
       </c>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>15</v>
       </c>
@@ -12711,15 +12705,15 @@
         <v>10</v>
       </c>
       <c r="G107" s="6">
-        <f>54/46</f>
-        <v>1.173913043478261</v>
+        <f>54-64</f>
+        <v>-10</v>
       </c>
       <c r="H107" s="6">
         <v>16111</v>
       </c>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>15</v>
       </c>
@@ -12739,15 +12733,15 @@
         <v>11</v>
       </c>
       <c r="G108" s="6">
-        <f>57/46</f>
-        <v>1.2391304347826086</v>
+        <f>57-61</f>
+        <v>-4</v>
       </c>
       <c r="H108" s="6">
         <v>21124</v>
       </c>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>15</v>
       </c>
@@ -12767,15 +12761,15 @@
         <v>12</v>
       </c>
       <c r="G109" s="6">
-        <f>54/46</f>
-        <v>1.173913043478261</v>
+        <f>54-60</f>
+        <v>-6</v>
       </c>
       <c r="H109" s="6">
         <v>16708</v>
       </c>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>15</v>
       </c>
@@ -12795,15 +12789,15 @@
         <v>13</v>
       </c>
       <c r="G110" s="6">
-        <f>43/46</f>
-        <v>0.93478260869565222</v>
+        <f>43-49</f>
+        <v>-6</v>
       </c>
       <c r="H110" s="6">
         <v>21993</v>
       </c>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>15</v>
       </c>
@@ -12823,15 +12817,15 @@
         <v>14</v>
       </c>
       <c r="G111">
-        <f>71/46</f>
-        <v>1.5434782608695652</v>
+        <f>71-69</f>
+        <v>2</v>
       </c>
       <c r="H111" s="6">
         <v>23492</v>
       </c>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>15</v>
       </c>
@@ -12851,15 +12845,15 @@
         <v>15</v>
       </c>
       <c r="G112" s="6">
-        <f>50/46</f>
-        <v>1.0869565217391304</v>
+        <f>50-61</f>
+        <v>-11</v>
       </c>
       <c r="H112" s="6">
         <v>24052</v>
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>15</v>
       </c>
@@ -12879,15 +12873,15 @@
         <v>16</v>
       </c>
       <c r="G113" s="6">
-        <f>58/46</f>
-        <v>1.2608695652173914</v>
+        <f>58-75</f>
+        <v>-17</v>
       </c>
       <c r="H113" s="6">
         <v>13613</v>
       </c>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>15</v>
       </c>
@@ -12907,15 +12901,15 @@
         <v>17</v>
       </c>
       <c r="G114" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-83</f>
+        <v>-21</v>
       </c>
       <c r="H114" s="6">
         <v>18276</v>
       </c>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>15</v>
       </c>
@@ -12935,15 +12929,15 @@
         <v>18</v>
       </c>
       <c r="G115" s="6">
-        <f>54/46</f>
-        <v>1.173913043478261</v>
+        <f>54-67</f>
+        <v>-13</v>
       </c>
       <c r="H115" s="6">
         <v>15413</v>
       </c>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>15</v>
       </c>
@@ -12963,15 +12957,15 @@
         <v>19</v>
       </c>
       <c r="G116" s="6">
-        <f>48/46</f>
-        <v>1.0434782608695652</v>
+        <f>48-69</f>
+        <v>-21</v>
       </c>
       <c r="H116" s="6">
         <v>17022</v>
       </c>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>15</v>
       </c>
@@ -12991,15 +12985,15 @@
         <v>20</v>
       </c>
       <c r="G117" s="6">
-        <f>44/46</f>
-        <v>0.95652173913043481</v>
+        <f>44-54</f>
+        <v>-10</v>
       </c>
       <c r="H117" s="6">
         <v>25645</v>
       </c>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>15</v>
       </c>
@@ -13019,15 +13013,15 @@
         <v>21</v>
       </c>
       <c r="G118" s="6">
-        <f>46/46</f>
-        <v>1</v>
+        <f>46-67</f>
+        <v>-21</v>
       </c>
       <c r="H118" s="6">
         <v>10240</v>
       </c>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>15</v>
       </c>
@@ -13047,15 +13041,15 @@
         <v>22</v>
       </c>
       <c r="G119" s="6">
-        <f>42/46</f>
-        <v>0.91304347826086951</v>
+        <f>42-76</f>
+        <v>-34</v>
       </c>
       <c r="H119" s="6">
         <v>10902</v>
       </c>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>15</v>
       </c>
@@ -13075,15 +13069,15 @@
         <v>23</v>
       </c>
       <c r="G120" s="6">
-        <f>39/46</f>
-        <v>0.84782608695652173</v>
+        <f>39-64</f>
+        <v>-25</v>
       </c>
       <c r="H120" s="6">
         <v>12882</v>
       </c>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>15</v>
       </c>
@@ -13103,15 +13097,15 @@
         <v>24</v>
       </c>
       <c r="G121" s="6">
-        <f>36/46</f>
-        <v>0.78260869565217395</v>
+        <f>36-91</f>
+        <v>-55</v>
       </c>
       <c r="H121" s="6">
         <v>10928</v>
       </c>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>16</v>
       </c>
@@ -13131,15 +13125,15 @@
         <v>1</v>
       </c>
       <c r="G122" s="6">
-        <f>72/46</f>
-        <v>1.5652173913043479</v>
+        <f>72-35</f>
+        <v>37</v>
       </c>
       <c r="H122" s="6">
         <v>16823</v>
       </c>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>16</v>
       </c>
@@ -13159,15 +13153,15 @@
         <v>2</v>
       </c>
       <c r="G123" s="6">
-        <f>63/46</f>
-        <v>1.3695652173913044</v>
+        <f>63-31</f>
+        <v>32</v>
       </c>
       <c r="H123" s="6">
         <v>24627</v>
       </c>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>16</v>
       </c>
@@ -13187,15 +13181,15 @@
         <v>3</v>
       </c>
       <c r="G124">
-        <f>72/46</f>
-        <v>1.5652173913043479</v>
+        <f>72-42</f>
+        <v>30</v>
       </c>
       <c r="H124" s="6">
         <v>25583</v>
       </c>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>16</v>
       </c>
@@ -13215,15 +13209,15 @@
         <v>4</v>
       </c>
       <c r="G125" s="6">
-        <f>69/46</f>
-        <v>1.5</v>
+        <f>69-35</f>
+        <v>34</v>
       </c>
       <c r="H125" s="6">
         <v>17199</v>
       </c>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>16</v>
       </c>
@@ -13243,15 +13237,15 @@
         <v>5</v>
       </c>
       <c r="G126" s="6">
-        <f>66/46</f>
-        <v>1.4347826086956521</v>
+        <f>66-43</f>
+        <v>23</v>
       </c>
       <c r="H126" s="6">
         <v>29663</v>
       </c>
       <c r="I126" s="6"/>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>16</v>
       </c>
@@ -13271,15 +13265,15 @@
         <v>6</v>
       </c>
       <c r="G127" s="6">
-        <f>66/46</f>
-        <v>1.4347826086956521</v>
+        <f>66-45</f>
+        <v>21</v>
       </c>
       <c r="H127" s="6">
         <v>22641</v>
       </c>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>16</v>
       </c>
@@ -13299,15 +13293,15 @@
         <v>7</v>
       </c>
       <c r="G128" s="6">
-        <f>53/46</f>
-        <v>1.1521739130434783</v>
+        <f>53-51</f>
+        <v>2</v>
       </c>
       <c r="H128" s="6">
         <v>18989</v>
       </c>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>16</v>
       </c>
@@ -13327,15 +13321,15 @@
         <v>8</v>
       </c>
       <c r="G129" s="6">
-        <f>56/46</f>
-        <v>1.2173913043478262</v>
+        <f>56-51</f>
+        <v>5</v>
       </c>
       <c r="H129" s="6">
         <v>16463</v>
       </c>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>16</v>
       </c>
@@ -13355,15 +13349,15 @@
         <v>9</v>
       </c>
       <c r="G130">
-        <f>72/46</f>
-        <v>1.5652173913043479</v>
+        <f>72-67</f>
+        <v>5</v>
       </c>
       <c r="H130" s="6">
         <v>10310</v>
       </c>
       <c r="I130" s="6"/>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>16</v>
       </c>
@@ -13383,15 +13377,15 @@
         <v>10</v>
       </c>
       <c r="G131" s="6">
-        <f>53/46</f>
-        <v>1.1521739130434783</v>
+        <f>53-49</f>
+        <v>4</v>
       </c>
       <c r="H131" s="6">
         <v>17603</v>
       </c>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>16</v>
       </c>
@@ -13411,15 +13405,15 @@
         <v>11</v>
       </c>
       <c r="G132" s="6">
-        <f>45/46</f>
-        <v>0.97826086956521741</v>
+        <f>45-45</f>
+        <v>0</v>
       </c>
       <c r="H132" s="6">
         <v>13035</v>
       </c>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>16</v>
       </c>
@@ -13439,15 +13433,15 @@
         <v>12</v>
       </c>
       <c r="G133" s="6">
-        <f>54/46</f>
-        <v>1.173913043478261</v>
+        <f>54-54</f>
+        <v>0</v>
       </c>
       <c r="H133" s="6">
         <v>15994</v>
       </c>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>16</v>
       </c>
@@ -13467,15 +13461,15 @@
         <v>13</v>
       </c>
       <c r="G134" s="6">
-        <f>50/46</f>
-        <v>1.0869565217391304</v>
+        <f>50-58</f>
+        <v>-8</v>
       </c>
       <c r="H134" s="6">
         <v>22446</v>
       </c>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>16</v>
       </c>
@@ -13495,15 +13489,15 @@
         <v>14</v>
       </c>
       <c r="G135" s="6">
-        <f>53/46</f>
-        <v>1.1521739130434783</v>
+        <f>53-58</f>
+        <v>-5</v>
       </c>
       <c r="H135" s="6">
         <v>20157</v>
       </c>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>16</v>
       </c>
@@ -13523,15 +13517,15 @@
         <v>15</v>
       </c>
       <c r="G136" s="6">
-        <f>46/46</f>
-        <v>1</v>
+        <f>46-46</f>
+        <v>0</v>
       </c>
       <c r="H136" s="6">
         <v>14131</v>
       </c>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>16</v>
       </c>
@@ -13551,15 +13545,15 @@
         <v>16</v>
       </c>
       <c r="G137" s="6">
-        <f>43/46</f>
-        <v>0.93478260869565222</v>
+        <f>43-47</f>
+        <v>-4</v>
       </c>
       <c r="H137" s="6">
         <v>19676</v>
       </c>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>16</v>
       </c>
@@ -13579,15 +13573,15 @@
         <v>17</v>
       </c>
       <c r="G138" s="6">
-        <f>52/46</f>
-        <v>1.1304347826086956</v>
+        <f>52-59</f>
+        <v>-7</v>
       </c>
       <c r="H138" s="6">
         <v>17285</v>
       </c>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>16</v>
       </c>
@@ -13607,15 +13601,15 @@
         <v>18</v>
       </c>
       <c r="G139" s="6">
-        <f>54/46</f>
-        <v>1.173913043478261</v>
+        <f>54-71</f>
+        <v>-17</v>
       </c>
       <c r="H139" s="6">
         <v>15292</v>
       </c>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>16</v>
       </c>
@@ -13635,15 +13629,15 @@
         <v>19</v>
       </c>
       <c r="G140" s="6">
-        <f>59/46</f>
-        <v>1.2826086956521738</v>
+        <f>59-70</f>
+        <v>-11</v>
       </c>
       <c r="H140" s="6">
         <v>12631</v>
       </c>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>16</v>
       </c>
@@ -13663,15 +13657,15 @@
         <v>20</v>
       </c>
       <c r="G141" s="6">
-        <f>66/46</f>
-        <v>1.4347826086956521</v>
+        <f>66-79</f>
+        <v>-13</v>
       </c>
       <c r="H141" s="6">
         <v>17566</v>
       </c>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>16</v>
       </c>
@@ -13691,15 +13685,15 @@
         <v>21</v>
       </c>
       <c r="G142" s="6">
-        <f>53/46</f>
-        <v>1.1521739130434783</v>
+        <f>53-71</f>
+        <v>-18</v>
       </c>
       <c r="H142" s="6">
         <v>10025</v>
       </c>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>16</v>
       </c>
@@ -13719,15 +13713,15 @@
         <v>22</v>
       </c>
       <c r="G143" s="6">
-        <f>40/46</f>
-        <v>0.86956521739130432</v>
+        <f>40-80</f>
+        <v>-40</v>
       </c>
       <c r="H143" s="6">
         <v>15632</v>
       </c>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>16</v>
       </c>
@@ -13747,15 +13741,15 @@
         <v>23</v>
       </c>
       <c r="G144" s="6">
-        <f>39/46</f>
-        <v>0.84782608695652173</v>
+        <f>39-69</f>
+        <v>-30</v>
       </c>
       <c r="H144" s="6">
         <v>13158</v>
       </c>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>16</v>
       </c>
@@ -13775,15 +13769,15 @@
         <v>24</v>
       </c>
       <c r="G145" s="6">
-        <f>41/46</f>
-        <v>0.89130434782608692</v>
+        <f>41-81</f>
+        <v>-40</v>
       </c>
       <c r="H145" s="6">
         <v>15056</v>
       </c>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>17</v>
       </c>
@@ -13803,15 +13797,15 @@
         <v>1</v>
       </c>
       <c r="G146" s="6">
-        <f>85/46</f>
-        <v>1.8478260869565217</v>
+        <f>85-40</f>
+        <v>45</v>
       </c>
       <c r="H146" s="6">
         <v>51106</v>
       </c>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>17</v>
       </c>
@@ -13831,15 +13825,15 @@
         <v>2</v>
       </c>
       <c r="G147" s="6">
-        <f>74/46</f>
-        <v>1.6086956521739131</v>
+        <f>74-40</f>
+        <v>34</v>
       </c>
       <c r="H147" s="6">
         <v>27996</v>
       </c>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>17</v>
       </c>
@@ -13859,15 +13853,15 @@
         <v>3</v>
       </c>
       <c r="G148" s="6">
-        <f>68/46</f>
-        <v>1.4782608695652173</v>
+        <f>68-64</f>
+        <v>4</v>
       </c>
       <c r="H148" s="6">
         <v>17505</v>
       </c>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>17</v>
       </c>
@@ -13887,15 +13881,15 @@
         <v>4</v>
       </c>
       <c r="G149" s="6">
-        <f>60/46</f>
-        <v>1.3043478260869565</v>
+        <f>60-45</f>
+        <v>15</v>
       </c>
       <c r="H149" s="6">
         <v>27129</v>
       </c>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>17</v>
       </c>
@@ -13915,15 +13909,15 @@
         <v>5</v>
       </c>
       <c r="G150" s="6">
-        <f>56/46</f>
-        <v>1.2173913043478262</v>
+        <f>56-58</f>
+        <v>-2</v>
       </c>
       <c r="H150" s="6">
         <v>20343</v>
       </c>
       <c r="I150" s="6"/>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>17</v>
       </c>
@@ -13943,15 +13937,15 @@
         <v>6</v>
       </c>
       <c r="G151" s="6">
-        <f>85/46</f>
-        <v>1.8478260869565217</v>
+        <f>85-57</f>
+        <v>28</v>
       </c>
       <c r="H151" s="6">
         <v>19199</v>
       </c>
       <c r="I151" s="6"/>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>17</v>
       </c>
@@ -13971,15 +13965,15 @@
         <v>7</v>
       </c>
       <c r="G152" s="6">
-        <f>61/46</f>
-        <v>1.326086956521739</v>
+        <f>61-47</f>
+        <v>14</v>
       </c>
       <c r="H152" s="6">
         <v>27698</v>
       </c>
       <c r="I152" s="6"/>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>17</v>
       </c>
@@ -13999,15 +13993,15 @@
         <v>8</v>
       </c>
       <c r="G153" s="6">
-        <f>85/46</f>
-        <v>1.8478260869565217</v>
+        <f>85-69</f>
+        <v>16</v>
       </c>
       <c r="H153" s="6">
         <v>26354</v>
       </c>
       <c r="I153" s="6"/>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>17</v>
       </c>
@@ -14027,15 +14021,15 @@
         <v>9</v>
       </c>
       <c r="G154" s="6">
-        <f>54/46</f>
-        <v>1.173913043478261</v>
+        <f>54-50</f>
+        <v>4</v>
       </c>
       <c r="H154" s="6">
         <v>29042</v>
       </c>
       <c r="I154" s="6"/>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>17</v>
       </c>
@@ -14055,15 +14049,15 @@
         <v>10</v>
       </c>
       <c r="G155" s="6">
-        <f>75/46</f>
-        <v>1.6304347826086956</v>
+        <f>75-65</f>
+        <v>10</v>
       </c>
       <c r="H155" s="6">
         <v>10467</v>
       </c>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>17</v>
       </c>
@@ -14083,15 +14077,15 @@
         <v>11</v>
       </c>
       <c r="G156" s="6">
-        <f>64/46</f>
-        <v>1.3913043478260869</v>
+        <f>64-63</f>
+        <v>1</v>
       </c>
       <c r="H156" s="6">
         <v>12607</v>
       </c>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>17</v>
       </c>
@@ -14111,15 +14105,15 @@
         <v>12</v>
       </c>
       <c r="G157" s="6">
-        <f>60/46</f>
-        <v>1.3043478260869565</v>
+        <f>60-61</f>
+        <v>-1</v>
       </c>
       <c r="H157" s="6">
         <v>16564</v>
       </c>
       <c r="I157" s="6"/>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>17</v>
       </c>
@@ -14139,15 +14133,15 @@
         <v>13</v>
       </c>
       <c r="G158" s="6">
-        <f>47/46</f>
-        <v>1.0217391304347827</v>
+        <f>47-48</f>
+        <v>-1</v>
       </c>
       <c r="H158" s="6">
         <v>32107</v>
       </c>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>17</v>
       </c>
@@ -14167,15 +14161,15 @@
         <v>14</v>
       </c>
       <c r="G159" s="6">
-        <f>64/46</f>
-        <v>1.3913043478260869</v>
+        <f>64-67</f>
+        <v>-3</v>
       </c>
       <c r="H159" s="6">
         <v>13857</v>
       </c>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>17</v>
       </c>
@@ -14195,15 +14189,15 @@
         <v>15</v>
       </c>
       <c r="G160" s="6">
-        <f>54/46</f>
-        <v>1.173913043478261</v>
+        <f>54-58</f>
+        <v>-4</v>
       </c>
       <c r="H160" s="6">
         <v>21570</v>
       </c>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>17</v>
       </c>
@@ -14223,15 +14217,15 @@
         <v>16</v>
       </c>
       <c r="G161" s="6">
-        <f>48/46</f>
-        <v>1.0434782608695652</v>
+        <f>48-58</f>
+        <v>-10</v>
       </c>
       <c r="H161" s="6">
         <v>16980</v>
       </c>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>17</v>
       </c>
@@ -14251,15 +14245,15 @@
         <v>17</v>
       </c>
       <c r="G162" s="6">
-        <f>60/46</f>
-        <v>1.3043478260869565</v>
+        <f>60-66</f>
+        <v>-6</v>
       </c>
       <c r="H162" s="6">
         <v>19256</v>
       </c>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>17</v>
       </c>
@@ -14279,15 +14273,15 @@
         <v>18</v>
       </c>
       <c r="G163" s="6">
-        <f>52/46</f>
-        <v>1.1304347826086956</v>
+        <f>52-66</f>
+        <v>-14</v>
       </c>
       <c r="H163" s="6">
         <v>14616</v>
       </c>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>17</v>
       </c>
@@ -14307,15 +14301,15 @@
         <v>19</v>
       </c>
       <c r="G164" s="6">
-        <f>45/46</f>
-        <v>0.97826086956521741</v>
+        <f>45-64</f>
+        <v>-19</v>
       </c>
       <c r="H164" s="6">
         <v>18717</v>
       </c>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>17</v>
       </c>
@@ -14335,15 +14329,15 @@
         <v>20</v>
       </c>
       <c r="G165" s="6">
-        <f>49/46</f>
-        <v>1.0652173913043479</v>
+        <f>49-63</f>
+        <v>-14</v>
       </c>
       <c r="H165" s="6">
         <v>5228</v>
       </c>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>17</v>
       </c>
@@ -14363,15 +14357,15 @@
         <v>21</v>
       </c>
       <c r="G166" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-72</f>
+        <v>-10</v>
       </c>
       <c r="H166" s="6">
         <v>20333</v>
       </c>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>17</v>
       </c>
@@ -14391,15 +14385,15 @@
         <v>22</v>
       </c>
       <c r="G167" s="6">
-        <f>53/46</f>
-        <v>1.1521739130434783</v>
+        <f>53-65</f>
+        <v>-12</v>
       </c>
       <c r="H167" s="6">
         <v>12688</v>
       </c>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>17</v>
       </c>
@@ -14419,15 +14413,15 @@
         <v>23</v>
       </c>
       <c r="G168" s="6">
-        <f>40/46</f>
-        <v>0.86956521739130432</v>
+        <f>40-57</f>
+        <v>-17</v>
       </c>
       <c r="H168" s="6">
         <v>11722</v>
       </c>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>17</v>
       </c>
@@ -14447,15 +14441,15 @@
         <v>24</v>
       </c>
       <c r="G169" s="6">
-        <f>40/46</f>
-        <v>0.86956521739130432</v>
+        <f>40-98</f>
+        <v>-58</v>
       </c>
       <c r="H169" s="6">
         <v>9783</v>
       </c>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>18</v>
       </c>
@@ -14475,15 +14469,15 @@
         <v>1</v>
       </c>
       <c r="G170" s="6">
-        <f>82/46</f>
-        <v>1.7826086956521738</v>
+        <f>82-39</f>
+        <v>43</v>
       </c>
       <c r="H170" s="6">
         <v>28342</v>
       </c>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>18</v>
       </c>
@@ -14503,15 +14497,15 @@
         <v>2</v>
       </c>
       <c r="G171" s="6">
-        <f>69/46</f>
-        <v>1.5</v>
+        <f>69-39</f>
+        <v>30</v>
       </c>
       <c r="H171" s="6">
         <v>20164</v>
       </c>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>18</v>
       </c>
@@ -14531,15 +14525,15 @@
         <v>3</v>
       </c>
       <c r="G172" s="6">
-        <f>79/46</f>
-        <v>1.7173913043478262</v>
+        <f>79-46</f>
+        <v>33</v>
       </c>
       <c r="H172" s="6">
         <v>19896</v>
       </c>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>18</v>
       </c>
@@ -14559,15 +14553,15 @@
         <v>4</v>
       </c>
       <c r="G173">
-        <f>72/46</f>
-        <v>1.5652173913043479</v>
+        <f>72-42</f>
+        <v>30</v>
       </c>
       <c r="H173" s="6">
         <v>32235</v>
       </c>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>18</v>
       </c>
@@ -14587,15 +14581,15 @@
         <v>5</v>
       </c>
       <c r="G174" s="6">
-        <f>67/46</f>
-        <v>1.4565217391304348</v>
+        <f>67-45</f>
+        <v>22</v>
       </c>
       <c r="H174" s="6">
         <v>25528</v>
       </c>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>18</v>
       </c>
@@ -14615,15 +14609,15 @@
         <v>6</v>
       </c>
       <c r="G175" s="6">
-        <f>70/46</f>
-        <v>1.5217391304347827</v>
+        <f>70-48</f>
+        <v>22</v>
       </c>
       <c r="H175" s="6">
         <v>27175</v>
       </c>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>18</v>
       </c>
@@ -14643,15 +14637,15 @@
         <v>7</v>
       </c>
       <c r="G176" s="6">
-        <f>57/46</f>
-        <v>1.2391304347826086</v>
+        <f>57-46</f>
+        <v>11</v>
       </c>
       <c r="H176" s="6">
         <v>13774</v>
       </c>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>18</v>
       </c>
@@ -14671,15 +14665,15 @@
         <v>8</v>
       </c>
       <c r="G177" s="6">
-        <f>56/46</f>
-        <v>1.2173913043478262</v>
+        <f>56-45</f>
+        <v>11</v>
       </c>
       <c r="H177" s="6">
         <v>13368</v>
       </c>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>18</v>
       </c>
@@ -14699,15 +14693,15 @@
         <v>9</v>
       </c>
       <c r="G178" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-52</f>
+        <v>10</v>
       </c>
       <c r="H178" s="6">
         <v>10234</v>
       </c>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>18</v>
       </c>
@@ -14727,15 +14721,15 @@
         <v>10</v>
       </c>
       <c r="G179" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-55</f>
+        <v>7</v>
       </c>
       <c r="H179" s="6">
         <v>26414</v>
       </c>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>18</v>
       </c>
@@ -14755,15 +14749,15 @@
         <v>11</v>
       </c>
       <c r="G180" s="6">
-        <f>67/46</f>
-        <v>1.4565217391304348</v>
+        <f>67-58</f>
+        <v>9</v>
       </c>
       <c r="H180" s="6">
         <v>20953</v>
       </c>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>18</v>
       </c>
@@ -14783,15 +14777,15 @@
         <v>12</v>
       </c>
       <c r="G181" s="6">
-        <f>57/46</f>
-        <v>1.2391304347826086</v>
+        <f>57-60</f>
+        <v>-3</v>
       </c>
       <c r="H181" s="6">
         <v>16272</v>
       </c>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>18</v>
       </c>
@@ -14811,15 +14805,15 @@
         <v>13</v>
       </c>
       <c r="G182" s="6">
-        <f>59/46</f>
-        <v>1.2826086956521738</v>
+        <f>59-64</f>
+        <v>-5</v>
       </c>
       <c r="H182" s="6">
         <v>31525</v>
       </c>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>18</v>
       </c>
@@ -14839,15 +14833,15 @@
         <v>14</v>
       </c>
       <c r="G183" s="6">
-        <f>49/46</f>
-        <v>1.0652173913043479</v>
+        <f>49-60</f>
+        <v>-11</v>
       </c>
       <c r="H183" s="6">
         <v>25773</v>
       </c>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>18</v>
       </c>
@@ -14867,15 +14861,15 @@
         <v>15</v>
       </c>
       <c r="G184" s="6">
-        <f>59/46</f>
-        <v>1.2826086956521738</v>
+        <f>59-60</f>
+        <v>-1</v>
       </c>
       <c r="H184" s="6">
         <v>25995</v>
       </c>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>18</v>
       </c>
@@ -14895,15 +14889,15 @@
         <v>16</v>
       </c>
       <c r="G185" s="6">
-        <f>58/46</f>
-        <v>1.2608695652173914</v>
+        <f>58-70</f>
+        <v>-12</v>
       </c>
       <c r="H185" s="6">
         <v>13928</v>
       </c>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>18</v>
       </c>
@@ -14923,15 +14917,15 @@
         <v>17</v>
       </c>
       <c r="G186" s="6">
-        <f>51/46</f>
-        <v>1.1086956521739131</v>
+        <f>51-65</f>
+        <v>-14</v>
       </c>
       <c r="H186" s="6">
         <v>24680</v>
       </c>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>18</v>
       </c>
@@ -14951,15 +14945,15 @@
         <v>18</v>
       </c>
       <c r="G187" s="6">
-        <f>70/46</f>
-        <v>1.5217391304347827</v>
+        <f>70-70</f>
+        <v>0</v>
       </c>
       <c r="H187" s="6">
         <v>15622</v>
       </c>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>18</v>
       </c>
@@ -14979,15 +14973,15 @@
         <v>19</v>
       </c>
       <c r="G188" s="6">
-        <f>38/46</f>
-        <v>0.82608695652173914</v>
+        <f>38-68</f>
+        <v>-30</v>
       </c>
       <c r="H188" s="6">
         <v>21042</v>
       </c>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>18</v>
       </c>
@@ -15007,15 +15001,15 @@
         <v>20</v>
       </c>
       <c r="G189" s="6">
-        <f>48/46</f>
-        <v>1.0434782608695652</v>
+        <f>48-70</f>
+        <v>-22</v>
       </c>
       <c r="H189" s="6">
         <v>16656</v>
       </c>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>18</v>
       </c>
@@ -15031,15 +15025,15 @@
         <v>21</v>
       </c>
       <c r="G190" s="6">
-        <f>39/46</f>
-        <v>0.84782608695652173</v>
+        <f>39-74</f>
+        <v>-35</v>
       </c>
       <c r="H190" s="6">
         <v>15887</v>
       </c>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>18</v>
       </c>
@@ -15059,15 +15053,15 @@
         <v>22</v>
       </c>
       <c r="G191" s="6">
-        <f>48/46</f>
-        <v>1.0434782608695652</v>
+        <f>48-72</f>
+        <v>-24</v>
       </c>
       <c r="H191" s="6">
         <v>13704</v>
       </c>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>18</v>
       </c>
@@ -15087,15 +15081,15 @@
         <v>23</v>
       </c>
       <c r="G192" s="6">
-        <f>38/46</f>
-        <v>0.82608695652173914</v>
+        <f>38-81</f>
+        <v>-43</v>
       </c>
       <c r="H192" s="6">
         <v>4645</v>
       </c>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>18</v>
       </c>
@@ -15115,15 +15109,15 @@
         <v>24</v>
       </c>
       <c r="G193" s="6">
-        <f>52/46</f>
-        <v>1.1304347826086956</v>
+        <f>52-80</f>
+        <v>-28</v>
       </c>
       <c r="H193" s="6">
         <v>27635</v>
       </c>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>19</v>
       </c>
@@ -15143,15 +15137,15 @@
         <v>1</v>
       </c>
       <c r="G194" s="6">
-        <f>93/46</f>
-        <v>2.0217391304347827</v>
+        <f>93-57</f>
+        <v>36</v>
       </c>
       <c r="H194" s="6">
         <v>26014</v>
       </c>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>19</v>
       </c>
@@ -15171,15 +15165,15 @@
         <v>2</v>
       </c>
       <c r="G195" s="6">
-        <f>78/46</f>
-        <v>1.6956521739130435</v>
+        <f>78-41</f>
+        <v>37</v>
       </c>
       <c r="H195" s="6">
         <v>26177</v>
       </c>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>19</v>
       </c>
@@ -15199,15 +15193,15 @@
         <v>3</v>
       </c>
       <c r="G196" s="6">
-        <f>73/46</f>
-        <v>1.5869565217391304</v>
+        <f>73-50</f>
+        <v>23</v>
       </c>
       <c r="H196" s="6">
         <v>33598</v>
       </c>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>19</v>
       </c>
@@ -15227,15 +15221,15 @@
         <v>4</v>
       </c>
       <c r="G197" s="6">
-        <f>87/46</f>
-        <v>1.8913043478260869</v>
+        <f>87-62</f>
+        <v>25</v>
       </c>
       <c r="H197" s="6">
         <v>24148</v>
       </c>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>19</v>
       </c>
@@ -15255,15 +15249,15 @@
         <v>5</v>
       </c>
       <c r="G198" s="6">
-        <f>82/46</f>
-        <v>1.7826086956521738</v>
+        <f>82-61</f>
+        <v>21</v>
       </c>
       <c r="H198" s="6">
         <v>35379</v>
       </c>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>19</v>
       </c>
@@ -15279,15 +15273,15 @@
         <v>6</v>
       </c>
       <c r="G199" s="6">
-        <f>69/46</f>
-        <v>1.5</v>
+        <f>69-54</f>
+        <v>15</v>
       </c>
       <c r="H199" s="6">
         <v>26850</v>
       </c>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>19</v>
       </c>
@@ -15307,15 +15301,15 @@
         <v>7</v>
       </c>
       <c r="G200" s="6">
-        <f>49/46</f>
-        <v>1.0652173913043479</v>
+        <f>49-41</f>
+        <v>8</v>
       </c>
       <c r="H200" s="6">
         <v>23217</v>
       </c>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>19</v>
       </c>
@@ -15335,15 +15329,15 @@
         <v>8</v>
       </c>
       <c r="G201" s="6">
-        <f>59/46</f>
-        <v>1.2826086956521738</v>
+        <f>59-53</f>
+        <v>6</v>
       </c>
       <c r="H201" s="6">
         <v>21080</v>
       </c>
       <c r="I201" s="6"/>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>19</v>
       </c>
@@ -15363,15 +15357,15 @@
         <v>9</v>
       </c>
       <c r="G202" s="6">
-        <f>61/46</f>
-        <v>1.326086956521739</v>
+        <f>61-54</f>
+        <v>7</v>
       </c>
       <c r="H202" s="6">
         <v>28144</v>
       </c>
       <c r="I202" s="6"/>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>19</v>
       </c>
@@ -15391,15 +15385,15 @@
         <v>10</v>
       </c>
       <c r="G203" s="6">
-        <f>65/46</f>
-        <v>1.4130434782608696</v>
+        <f>65-62</f>
+        <v>3</v>
       </c>
       <c r="H203" s="6">
         <v>18737</v>
       </c>
       <c r="I203" s="6"/>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>19</v>
       </c>
@@ -15419,15 +15413,15 @@
         <v>11</v>
       </c>
       <c r="G204" s="6">
-        <f>73/46</f>
-        <v>1.5869565217391304</v>
+        <f>73-59</f>
+        <v>14</v>
       </c>
       <c r="H204" s="6">
         <v>10257</v>
       </c>
       <c r="I204" s="6"/>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>19</v>
       </c>
@@ -15447,15 +15441,15 @@
         <v>12</v>
       </c>
       <c r="G205" s="6">
-        <f>60/46</f>
-        <v>1.3043478260869565</v>
+        <f>60-62</f>
+        <v>-2</v>
       </c>
       <c r="H205" s="6">
         <v>24669</v>
       </c>
       <c r="I205" s="6"/>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>19</v>
       </c>
@@ -15475,15 +15469,15 @@
         <v>13</v>
       </c>
       <c r="G206" s="6">
-        <f>66/46</f>
-        <v>1.4347826086956521</v>
+        <f>66-68</f>
+        <v>-2</v>
       </c>
       <c r="H206" s="6">
         <v>12269</v>
       </c>
       <c r="I206" s="6"/>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>19</v>
       </c>
@@ -15503,15 +15497,15 @@
         <v>14</v>
       </c>
       <c r="G207" s="6">
-        <f>67/46</f>
-        <v>1.4565217391304348</v>
+        <f>67-67</f>
+        <v>0</v>
       </c>
       <c r="H207" s="6">
         <v>14160</v>
       </c>
       <c r="I207" s="6"/>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>19</v>
       </c>
@@ -15531,15 +15525,15 @@
         <v>15</v>
       </c>
       <c r="G208" s="6">
-        <f>64/46</f>
-        <v>1.3913043478260869</v>
+        <f>64-69</f>
+        <v>-5</v>
       </c>
       <c r="H208" s="6">
         <v>14550</v>
       </c>
       <c r="I208" s="6"/>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>19</v>
       </c>
@@ -15559,15 +15553,15 @@
         <v>16</v>
       </c>
       <c r="G209" s="6">
-        <f>45/46</f>
-        <v>0.97826086956521741</v>
+        <f>45-52</f>
+        <v>-7</v>
       </c>
       <c r="H209" s="6">
         <v>25200</v>
       </c>
       <c r="I209" s="6"/>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>19</v>
       </c>
@@ -15587,15 +15581,15 @@
         <v>17</v>
       </c>
       <c r="G210" s="6">
-        <f>64/46</f>
-        <v>1.3913043478260869</v>
+        <f>64-58</f>
+        <v>6</v>
       </c>
       <c r="H210" s="6">
         <v>22483</v>
       </c>
       <c r="I210" s="6"/>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>19</v>
       </c>
@@ -15615,15 +15609,15 @@
         <v>18</v>
       </c>
       <c r="G211" s="6">
-        <f>51/46</f>
-        <v>1.1086956521739131</v>
+        <f>51-64</f>
+        <v>-13</v>
       </c>
       <c r="H211" s="6">
         <v>12079</v>
       </c>
       <c r="I211" s="6"/>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>19</v>
       </c>
@@ -15643,15 +15637,15 @@
         <v>19</v>
       </c>
       <c r="G212" s="6">
-        <f>53/46</f>
-        <v>1.1521739130434783</v>
+        <f>53-71</f>
+        <v>-18</v>
       </c>
       <c r="H212" s="6">
         <v>13866</v>
       </c>
       <c r="I212" s="6"/>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>19</v>
       </c>
@@ -15671,15 +15665,15 @@
         <v>20</v>
       </c>
       <c r="G213" s="6">
-        <f>49/46</f>
-        <v>1.0652173913043479</v>
+        <f>49-66</f>
+        <v>-17</v>
       </c>
       <c r="H213" s="6">
         <v>14991</v>
       </c>
       <c r="I213" s="6"/>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>19</v>
       </c>
@@ -15699,15 +15693,15 @@
         <v>21</v>
       </c>
       <c r="G214" s="6">
-        <f>48/46</f>
-        <v>1.0434782608695652</v>
+        <f>48-64</f>
+        <v>-16</v>
       </c>
       <c r="H214" s="6">
         <v>13636</v>
       </c>
       <c r="I214" s="6"/>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>19</v>
       </c>
@@ -15727,15 +15721,15 @@
         <v>22</v>
       </c>
       <c r="G215" s="6">
-        <f>52/46</f>
-        <v>1.1304347826086956</v>
+        <f>52-83</f>
+        <v>-31</v>
       </c>
       <c r="H215" s="6">
         <v>10036</v>
       </c>
       <c r="I215" s="6"/>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>19</v>
       </c>
@@ -15751,15 +15745,15 @@
         <v>23</v>
       </c>
       <c r="G216" s="6">
-        <f>29/46</f>
-        <v>0.63043478260869568</v>
+        <f>29-78</f>
+        <v>-49</v>
       </c>
       <c r="H216" s="6">
         <v>14636</v>
       </c>
       <c r="I216" s="6"/>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>19</v>
       </c>
@@ -15779,15 +15773,15 @@
         <v>24</v>
       </c>
       <c r="G217" s="6">
-        <f>36/46</f>
-        <v>0.78260869565217395</v>
+        <f>36-77</f>
+        <v>-41</v>
       </c>
       <c r="H217" s="6">
         <v>17765</v>
       </c>
       <c r="I217" s="6"/>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>20</v>
       </c>
@@ -15807,15 +15801,15 @@
         <v>1</v>
       </c>
       <c r="G218" s="6">
-        <f>77/46</f>
-        <v>1.673913043478261</v>
+        <f>77-35</f>
+        <v>42</v>
       </c>
       <c r="H218" s="6">
         <v>35321</v>
       </c>
       <c r="I218" s="6"/>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>20</v>
       </c>
@@ -15835,15 +15829,15 @@
         <v>2</v>
       </c>
       <c r="G219" s="6">
-        <f>77/46</f>
-        <v>1.673913043478261</v>
+        <f>77-45</f>
+        <v>32</v>
       </c>
       <c r="H219" s="6">
         <v>24053</v>
       </c>
       <c r="I219" s="6"/>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>20</v>
       </c>
@@ -15863,15 +15857,15 @@
         <v>3</v>
       </c>
       <c r="G220" s="6">
-        <f>80/46</f>
-        <v>1.7391304347826086</v>
+        <f>80-38</f>
+        <v>42</v>
       </c>
       <c r="H220" s="6">
         <v>11699</v>
       </c>
       <c r="I220" s="6"/>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>20</v>
       </c>
@@ -15891,15 +15885,15 @@
         <v>4</v>
       </c>
       <c r="G221" s="6">
-        <f>64/46</f>
-        <v>1.3913043478260869</v>
+        <f>64-48</f>
+        <v>16</v>
       </c>
       <c r="H221" s="6">
         <v>18324</v>
       </c>
       <c r="I221" s="6"/>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>20</v>
       </c>
@@ -15919,15 +15913,15 @@
         <v>5</v>
       </c>
       <c r="G222" s="6">
-        <f>68/46</f>
-        <v>1.4782608695652173</v>
+        <f>68-58</f>
+        <v>10</v>
       </c>
       <c r="H222" s="6">
         <v>22822</v>
       </c>
       <c r="I222" s="6"/>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>20</v>
       </c>
@@ -15947,15 +15941,15 @@
         <v>6</v>
       </c>
       <c r="G223" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-53</f>
+        <v>9</v>
       </c>
       <c r="H223" s="6">
         <v>16151</v>
       </c>
       <c r="I223" s="6"/>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>20</v>
       </c>
@@ -15975,15 +15969,15 @@
         <v>7</v>
       </c>
       <c r="G224" s="6">
-        <f>58/46</f>
-        <v>1.2608695652173914</v>
+        <f>58-50</f>
+        <v>8</v>
       </c>
       <c r="H224" s="6">
         <v>27724</v>
       </c>
       <c r="I224" s="6"/>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>20</v>
       </c>
@@ -16003,15 +15997,15 @@
         <v>8</v>
       </c>
       <c r="G225" s="6">
-        <f>57/46</f>
-        <v>1.2391304347826086</v>
+        <f>57-51</f>
+        <v>6</v>
       </c>
       <c r="H225" s="6">
         <v>13734</v>
       </c>
       <c r="I225" s="6"/>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>20</v>
       </c>
@@ -16031,15 +16025,15 @@
         <v>9</v>
       </c>
       <c r="G226" s="6">
-        <f>59/46</f>
-        <v>1.2826086956521738</v>
+        <f>59-54</f>
+        <v>5</v>
       </c>
       <c r="H226" s="6">
         <v>14342</v>
       </c>
       <c r="I226" s="6"/>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>20</v>
       </c>
@@ -16055,15 +16049,15 @@
         <v>10</v>
       </c>
       <c r="G227" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-64</f>
+        <v>-2</v>
       </c>
       <c r="H227" s="6">
         <v>26727</v>
       </c>
       <c r="I227" s="6"/>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>20</v>
       </c>
@@ -16083,15 +16077,15 @@
         <v>11</v>
       </c>
       <c r="G228" s="6">
-        <f>66/46</f>
-        <v>1.4347826086956521</v>
+        <f>66-63</f>
+        <v>3</v>
       </c>
       <c r="H228" s="6">
         <v>13873</v>
       </c>
       <c r="I228" s="6"/>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>20</v>
       </c>
@@ -16111,15 +16105,15 @@
         <v>12</v>
       </c>
       <c r="G229" s="6">
-        <f>60/46</f>
-        <v>1.3043478260869565</v>
+        <f>60-65</f>
+        <v>-5</v>
       </c>
       <c r="H229" s="6">
         <v>21823</v>
       </c>
       <c r="I229" s="6"/>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>20</v>
       </c>
@@ -16139,15 +16133,15 @@
         <v>13</v>
       </c>
       <c r="G230" s="6">
-        <f>67/46</f>
-        <v>1.4565217391304348</v>
+        <f>67-76</f>
+        <v>-9</v>
       </c>
       <c r="H230" s="6">
         <v>13721</v>
       </c>
       <c r="I230" s="6"/>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>20</v>
       </c>
@@ -16167,15 +16161,15 @@
         <v>14</v>
       </c>
       <c r="G231" s="6">
-        <f>59/46</f>
-        <v>1.2826086956521738</v>
+        <f>59-58</f>
+        <v>1</v>
       </c>
       <c r="H231" s="6">
         <v>14535</v>
       </c>
       <c r="I231" s="6"/>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>20</v>
       </c>
@@ -16195,15 +16189,15 @@
         <v>15</v>
       </c>
       <c r="G232" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-68</f>
+        <v>-6</v>
       </c>
       <c r="H232" s="6">
         <v>22828</v>
       </c>
       <c r="I232" s="6"/>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>20</v>
       </c>
@@ -16223,15 +16217,15 @@
         <v>16</v>
       </c>
       <c r="G233" s="6">
-        <f>58/46</f>
-        <v>1.2608695652173914</v>
+        <f>58-66</f>
+        <v>-8</v>
       </c>
       <c r="H233" s="6">
         <v>23733</v>
       </c>
       <c r="I233" s="6"/>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>20</v>
       </c>
@@ -16251,15 +16245,15 @@
         <v>17</v>
       </c>
       <c r="G234" s="6">
-        <f>48/46</f>
-        <v>1.0434782608695652</v>
+        <f>48-61</f>
+        <v>-13</v>
       </c>
       <c r="H234" s="6">
         <v>19934</v>
       </c>
       <c r="I234" s="6"/>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>20</v>
       </c>
@@ -16279,15 +16273,15 @@
         <v>18</v>
       </c>
       <c r="G235" s="6">
-        <f>52/46</f>
-        <v>1.1304347826086956</v>
+        <f>52-70</f>
+        <v>-18</v>
       </c>
       <c r="H235" s="6">
         <v>21748</v>
       </c>
       <c r="I235" s="6"/>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>20</v>
       </c>
@@ -16307,15 +16301,15 @@
         <v>19</v>
       </c>
       <c r="G236" s="6">
-        <f>54/46</f>
-        <v>1.173913043478261</v>
+        <f>54-82</f>
+        <v>-28</v>
       </c>
       <c r="H236" s="6">
         <v>10048</v>
       </c>
       <c r="I236" s="6"/>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>20</v>
       </c>
@@ -16335,15 +16329,15 @@
         <v>20</v>
       </c>
       <c r="G237" s="6">
-        <f>54/46</f>
-        <v>1.173913043478261</v>
+        <f>54-75</f>
+        <v>-21</v>
       </c>
       <c r="H237" s="6">
         <v>20412</v>
       </c>
       <c r="I237" s="6"/>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>20</v>
       </c>
@@ -16363,15 +16357,15 @@
         <v>21</v>
       </c>
       <c r="G238" s="6">
-        <f>49/46</f>
-        <v>1.0652173913043479</v>
+        <f>49-69</f>
+        <v>-20</v>
       </c>
       <c r="H238" s="6">
         <v>14061</v>
       </c>
       <c r="I238" s="6"/>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>20</v>
       </c>
@@ -16391,15 +16385,15 @@
         <v>22</v>
       </c>
       <c r="G239" s="6">
-        <f>50/46</f>
-        <v>1.0869565217391304</v>
+        <f>50-65</f>
+        <v>-15</v>
       </c>
       <c r="H239" s="6">
         <v>18017</v>
       </c>
       <c r="I239" s="6"/>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>20</v>
       </c>
@@ -16415,15 +16409,15 @@
         <v>23</v>
       </c>
       <c r="G240" s="6">
-        <f>57/46</f>
-        <v>1.2391304347826086</v>
+        <f>57-56</f>
+        <v>1</v>
       </c>
       <c r="H240" s="6">
         <v>10592</v>
       </c>
       <c r="I240" s="6"/>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>20</v>
       </c>
@@ -16443,15 +16437,15 @@
         <v>24</v>
       </c>
       <c r="G241" s="6">
-        <f>57/46</f>
-        <v>1.2391304347826086</v>
+        <f>57-87</f>
+        <v>-30</v>
       </c>
       <c r="H241" s="6">
         <v>11946</v>
       </c>
       <c r="I241" s="6"/>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>21</v>
       </c>
@@ -16471,15 +16465,15 @@
         <v>1</v>
       </c>
       <c r="G242" s="6">
-        <f>75/46</f>
-        <v>1.6304347826086956</v>
+        <f>75-36</f>
+        <v>39</v>
       </c>
       <c r="H242" s="6">
         <v>1750</v>
       </c>
       <c r="I242" s="6"/>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>21</v>
       </c>
@@ -16499,15 +16493,15 @@
         <v>2</v>
       </c>
       <c r="G243" s="6">
-        <f>63/46</f>
-        <v>1.3695652173913044</v>
+        <f>63-30</f>
+        <v>33</v>
       </c>
       <c r="H243" s="6">
         <v>1983</v>
       </c>
       <c r="I243" s="6"/>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>21</v>
       </c>
@@ -16527,8 +16521,8 @@
         <v>3</v>
       </c>
       <c r="G244" s="6">
-        <f>79/46</f>
-        <v>1.7173913043478262</v>
+        <f>79-42</f>
+        <v>37</v>
       </c>
       <c r="H244" s="6">
         <v>2000</v>
@@ -16555,8 +16549,8 @@
         <v>4</v>
       </c>
       <c r="G245" s="6">
-        <f>56/46</f>
-        <v>1.2173913043478262</v>
+        <f>56-39</f>
+        <v>17</v>
       </c>
       <c r="H245" s="6"/>
       <c r="I245" s="6"/>
@@ -16581,13 +16575,13 @@
         <v>5</v>
       </c>
       <c r="G246" s="6">
-        <f>58/46</f>
-        <v>1.2608695652173914</v>
+        <f>58-50</f>
+        <v>8</v>
       </c>
       <c r="H246" s="6"/>
       <c r="I246" s="6"/>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>21</v>
       </c>
@@ -16607,15 +16601,15 @@
         <v>6</v>
       </c>
       <c r="G247" s="6">
-        <f>73/46</f>
-        <v>1.5869565217391304</v>
+        <f>73-46</f>
+        <v>27</v>
       </c>
       <c r="H247" s="6">
         <v>1600</v>
       </c>
       <c r="I247" s="6"/>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>21</v>
       </c>
@@ -16635,8 +16629,8 @@
         <v>7</v>
       </c>
       <c r="G248" s="6">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-54</f>
+        <v>8</v>
       </c>
       <c r="H248" s="6">
         <v>6000</v>
@@ -16663,13 +16657,13 @@
         <v>8</v>
       </c>
       <c r="G249" s="6">
-        <f>66/46</f>
-        <v>1.4347826086956521</v>
+        <f>66-49</f>
+        <v>17</v>
       </c>
       <c r="H249" s="6"/>
       <c r="I249" s="6"/>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>21</v>
       </c>
@@ -16689,15 +16683,15 @@
         <v>9</v>
       </c>
       <c r="G250" s="6">
-        <f>57/46</f>
-        <v>1.2391304347826086</v>
+        <f>57-55</f>
+        <v>2</v>
       </c>
       <c r="H250" s="6">
         <v>2000</v>
       </c>
       <c r="I250" s="6"/>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>21</v>
       </c>
@@ -16717,15 +16711,15 @@
         <v>10</v>
       </c>
       <c r="G251" s="6">
-        <f>55/46</f>
-        <v>1.1956521739130435</v>
+        <f>55-53</f>
+        <v>2</v>
       </c>
       <c r="H251" s="6">
         <v>1000</v>
       </c>
       <c r="I251" s="6"/>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>21</v>
       </c>
@@ -16745,15 +16739,15 @@
         <v>11</v>
       </c>
       <c r="G252" s="6">
-        <f>47/46</f>
-        <v>1.0217391304347827</v>
+        <f>47-52</f>
+        <v>-5</v>
       </c>
       <c r="H252" s="6">
         <v>2000</v>
       </c>
       <c r="I252" s="6"/>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>21</v>
       </c>
@@ -16773,8 +16767,8 @@
         <v>12</v>
       </c>
       <c r="G253" s="6">
-        <f>41/46</f>
-        <v>0.89130434782608692</v>
+        <f>41-52</f>
+        <v>-11</v>
       </c>
       <c r="H253" s="6">
         <v>1500</v>
@@ -16801,8 +16795,8 @@
         <v>13</v>
       </c>
       <c r="G254" s="6">
-        <f>49/46</f>
-        <v>1.0652173913043479</v>
+        <f>49-56</f>
+        <v>-7</v>
       </c>
       <c r="H254" s="6"/>
       <c r="I254" s="6"/>
@@ -16827,8 +16821,8 @@
         <v>14</v>
       </c>
       <c r="G255" s="6">
-        <f>50/46</f>
-        <v>1.0869565217391304</v>
+        <f>50-52</f>
+        <v>-2</v>
       </c>
       <c r="H255" s="6"/>
       <c r="I255" s="6"/>
@@ -16853,8 +16847,8 @@
         <v>15</v>
       </c>
       <c r="G256" s="6">
-        <f>65/46</f>
-        <v>1.4130434782608696</v>
+        <f>65-54</f>
+        <v>11</v>
       </c>
       <c r="H256" s="6"/>
       <c r="I256" s="6"/>
@@ -16879,8 +16873,8 @@
         <v>16</v>
       </c>
       <c r="G257" s="6">
-        <f>49/46</f>
-        <v>1.0652173913043479</v>
+        <f>49-61</f>
+        <v>-12</v>
       </c>
       <c r="H257" s="6"/>
       <c r="I257" s="6"/>
@@ -16905,8 +16899,8 @@
         <v>17</v>
       </c>
       <c r="G258" s="6">
-        <f>37/46</f>
-        <v>0.80434782608695654</v>
+        <f>37-45</f>
+        <v>-8</v>
       </c>
       <c r="H258" s="6"/>
       <c r="I258" s="6"/>
@@ -16931,8 +16925,8 @@
         <v>18</v>
       </c>
       <c r="G259" s="6">
-        <f>37/46</f>
-        <v>0.80434782608695654</v>
+        <f>37-61</f>
+        <v>-24</v>
       </c>
       <c r="H259" s="6"/>
       <c r="I259" s="6"/>
@@ -16957,8 +16951,8 @@
         <v>19</v>
       </c>
       <c r="G260" s="6">
-        <f>46/46</f>
-        <v>1</v>
+        <f>46-68</f>
+        <v>-22</v>
       </c>
       <c r="H260" s="6"/>
       <c r="I260" s="6"/>
@@ -16983,8 +16977,8 @@
         <v>20</v>
       </c>
       <c r="G261" s="6">
-        <f>50/46</f>
-        <v>1.0869565217391304</v>
+        <f>50-71</f>
+        <v>-21</v>
       </c>
       <c r="H261" s="9"/>
       <c r="I261" s="9"/>
@@ -17005,13 +16999,13 @@
         <v>21</v>
       </c>
       <c r="G262" s="6">
-        <f>36/46</f>
-        <v>0.78260869565217395</v>
+        <f>36-58</f>
+        <v>-22</v>
       </c>
       <c r="H262" s="6"/>
       <c r="I262" s="6"/>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>21</v>
       </c>
@@ -17027,8 +17021,8 @@
         <v>22</v>
       </c>
       <c r="G263" s="6">
-        <f>39/46</f>
-        <v>0.84782608695652173</v>
+        <f>39-69</f>
+        <v>-30</v>
       </c>
       <c r="H263" s="6">
         <v>3000</v>
@@ -17055,8 +17049,8 @@
         <v>23</v>
       </c>
       <c r="G264" s="6">
-        <f>44/46</f>
-        <v>0.95652173913043481</v>
+        <f>44-60</f>
+        <v>-16</v>
       </c>
       <c r="H264" s="6"/>
       <c r="I264" s="6"/>
@@ -17081,13 +17075,13 @@
         <v>24</v>
       </c>
       <c r="G265" s="6">
-        <f>40/46</f>
-        <v>0.86956521739130432</v>
+        <f>40-61</f>
+        <v>-21</v>
       </c>
       <c r="H265" s="6"/>
       <c r="I265" s="6"/>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>22</v>
       </c>
@@ -17107,15 +17101,15 @@
         <v>1</v>
       </c>
       <c r="G266" s="6">
-        <f>106/46</f>
-        <v>2.3043478260869565</v>
+        <f>106-43</f>
+        <v>63</v>
       </c>
       <c r="H266" s="9">
         <v>17774</v>
       </c>
       <c r="I266" s="9"/>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>22</v>
       </c>
@@ -17135,15 +17129,15 @@
         <v>2</v>
       </c>
       <c r="G267" s="6">
-        <f>74/46</f>
-        <v>1.6086956521739131</v>
+        <f>74-39</f>
+        <v>35</v>
       </c>
       <c r="H267" s="9">
         <v>9634</v>
       </c>
       <c r="I267" s="9"/>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
         <v>22</v>
       </c>
@@ -17163,15 +17157,15 @@
         <v>3</v>
       </c>
       <c r="G268" s="6">
-        <f>64/46</f>
-        <v>1.3913043478260869</v>
+        <f>64-47</f>
+        <v>17</v>
       </c>
       <c r="H268" s="9">
         <v>17325</v>
       </c>
       <c r="I268" s="6"/>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>22</v>
       </c>
@@ -17191,15 +17185,15 @@
         <v>4</v>
       </c>
       <c r="G269" s="9">
-        <f>73/46</f>
-        <v>1.5869565217391304</v>
+        <f>73-40</f>
+        <v>33</v>
       </c>
       <c r="H269" s="9">
         <v>27176</v>
       </c>
       <c r="I269" s="6"/>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>22</v>
       </c>
@@ -17219,15 +17213,15 @@
         <v>5</v>
       </c>
       <c r="G270" s="9">
-        <f>63/46</f>
-        <v>1.3695652173913044</v>
+        <f>63-45</f>
+        <v>18</v>
       </c>
       <c r="H270" s="9">
         <v>27611</v>
       </c>
       <c r="I270" s="6"/>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>22</v>
       </c>
@@ -17247,15 +17241,15 @@
         <v>6</v>
       </c>
       <c r="G271" s="9">
-        <f>63/46</f>
-        <v>1.3695652173913044</v>
+        <f>63-55</f>
+        <v>8</v>
       </c>
       <c r="H271" s="9">
         <v>9857</v>
       </c>
       <c r="I271" s="6"/>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>22</v>
       </c>
@@ -17275,15 +17269,15 @@
         <v>7</v>
       </c>
       <c r="G272" s="9">
-        <f>59/46</f>
-        <v>1.2826086956521738</v>
+        <f>59-50</f>
+        <v>9</v>
       </c>
       <c r="H272" s="9">
         <v>21825</v>
       </c>
       <c r="I272" s="6"/>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>22</v>
       </c>
@@ -17303,15 +17297,15 @@
         <v>8</v>
       </c>
       <c r="G273" s="9">
-        <f>59/46</f>
-        <v>1.2826086956521738</v>
+        <f>59-50</f>
+        <v>9</v>
       </c>
       <c r="H273" s="9">
         <v>14279</v>
       </c>
       <c r="I273" s="6"/>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>22</v>
       </c>
@@ -17331,15 +17325,15 @@
         <v>9</v>
       </c>
       <c r="G274" s="9">
-        <f>53/46</f>
-        <v>1.1521739130434783</v>
+        <f>53-45</f>
+        <v>8</v>
       </c>
       <c r="H274" s="9">
         <v>12958</v>
       </c>
       <c r="I274" s="6"/>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>22</v>
       </c>
@@ -17359,15 +17353,15 @@
         <v>10</v>
       </c>
       <c r="G275" s="9">
-        <f>52/46</f>
-        <v>1.1304347826086956</v>
+        <f>52-45</f>
+        <v>7</v>
       </c>
       <c r="H275" s="9">
         <v>21875</v>
       </c>
       <c r="I275" s="6"/>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>22</v>
       </c>
@@ -17387,15 +17381,15 @@
         <v>11</v>
       </c>
       <c r="G276" s="9">
-        <f>60/46</f>
-        <v>1.3043478260869565</v>
+        <f>60-59</f>
+        <v>1</v>
       </c>
       <c r="H276" s="9">
         <v>14437</v>
       </c>
       <c r="I276" s="6"/>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>22</v>
       </c>
@@ -17415,15 +17409,15 @@
         <v>12</v>
       </c>
       <c r="G277" s="9">
-        <f>60/46</f>
-        <v>1.3043478260869565</v>
+        <f>60-59</f>
+        <v>1</v>
       </c>
       <c r="H277" s="9">
         <v>19541</v>
       </c>
       <c r="I277" s="6"/>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>22</v>
       </c>
@@ -17443,15 +17437,15 @@
         <v>13</v>
       </c>
       <c r="G278" s="9">
-        <f>52/46</f>
-        <v>1.1304347826086956</v>
+        <f>52-56</f>
+        <v>-4</v>
       </c>
       <c r="H278" s="9">
         <v>12608</v>
       </c>
       <c r="I278" s="6"/>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>22</v>
       </c>
@@ -17471,15 +17465,15 @@
         <v>14</v>
       </c>
       <c r="G279" s="9">
-        <f>57/46</f>
-        <v>1.2391304347826086</v>
+        <f>57-52</f>
+        <v>5</v>
       </c>
       <c r="H279" s="9">
         <v>20921</v>
       </c>
       <c r="I279" s="6"/>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>22</v>
       </c>
@@ -17499,15 +17493,15 @@
         <v>15</v>
       </c>
       <c r="G280" s="9">
-        <f>58/46</f>
-        <v>1.2608695652173914</v>
+        <f>58-68</f>
+        <v>-10</v>
       </c>
       <c r="H280" s="9">
         <v>17389</v>
       </c>
       <c r="I280" s="6"/>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>22</v>
       </c>
@@ -17527,15 +17521,15 @@
         <v>16</v>
       </c>
       <c r="G281" s="9">
-        <f>54/46</f>
-        <v>1.173913043478261</v>
+        <f>54-58</f>
+        <v>-4</v>
       </c>
       <c r="H281" s="9">
         <v>12104</v>
       </c>
       <c r="I281" s="6"/>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>22</v>
       </c>
@@ -17555,15 +17549,15 @@
         <v>17</v>
       </c>
       <c r="G282" s="9">
-        <f>62/46</f>
-        <v>1.3478260869565217</v>
+        <f>62-77</f>
+        <v>-15</v>
       </c>
       <c r="H282" s="9">
         <v>19093</v>
       </c>
       <c r="I282" s="6"/>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>22</v>
       </c>
@@ -17583,15 +17577,15 @@
         <v>18</v>
       </c>
       <c r="G283" s="9">
-        <f>50/46</f>
-        <v>1.0869565217391304</v>
+        <f>50-68</f>
+        <v>-18</v>
       </c>
       <c r="H283" s="9">
         <v>18869</v>
       </c>
       <c r="I283" s="6"/>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>22</v>
       </c>
@@ -17611,15 +17605,15 @@
         <v>19</v>
       </c>
       <c r="G284" s="9">
-        <f>41/46</f>
-        <v>0.89130434782608692</v>
+        <f>41-54</f>
+        <v>-13</v>
       </c>
       <c r="H284" s="9">
         <v>12888</v>
       </c>
       <c r="I284" s="6"/>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>22</v>
       </c>
@@ -17639,15 +17633,15 @@
         <v>20</v>
       </c>
       <c r="G285" s="9">
-        <f>50/46</f>
-        <v>1.0869565217391304</v>
+        <f>50-75</f>
+        <v>-25</v>
       </c>
       <c r="H285" s="9">
         <v>16162</v>
       </c>
       <c r="I285" s="6"/>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>22</v>
       </c>
@@ -17667,15 +17661,15 @@
         <v>21</v>
       </c>
       <c r="G286" s="9">
-        <f>54/46</f>
-        <v>1.173913043478261</v>
+        <f>54-87</f>
+        <v>-33</v>
       </c>
       <c r="H286" s="9">
         <v>13193</v>
       </c>
       <c r="I286" s="6"/>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>22</v>
       </c>
@@ -17695,15 +17689,15 @@
         <v>22</v>
       </c>
       <c r="G287" s="9">
-        <f>43/46</f>
-        <v>0.93478260869565222</v>
+        <f>43-87</f>
+        <v>-44</v>
       </c>
       <c r="H287" s="9">
         <v>10088</v>
       </c>
       <c r="I287" s="6"/>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>22</v>
       </c>
@@ -17719,15 +17713,15 @@
         <v>23</v>
       </c>
       <c r="G288" s="9">
-        <f>45/46</f>
-        <v>0.97826086956521741</v>
+        <f>45-53</f>
+        <v>-8</v>
       </c>
       <c r="H288" s="9">
         <v>23112</v>
       </c>
       <c r="I288" s="6"/>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>22</v>
       </c>
@@ -17747,15 +17741,15 @@
         <v>24</v>
       </c>
       <c r="G289" s="9">
-        <f>33/46</f>
-        <v>0.71739130434782605</v>
+        <f>33-73</f>
+        <v>-40</v>
       </c>
       <c r="H289" s="9">
         <v>13233</v>
       </c>
       <c r="I289" s="6"/>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
         <v>23</v>
       </c>
@@ -17775,15 +17769,15 @@
         <v>1</v>
       </c>
       <c r="G290" s="9">
-        <f>87/46</f>
-        <v>1.8913043478260869</v>
+        <f>87-35</f>
+        <v>52</v>
       </c>
       <c r="H290" s="9">
         <v>19776</v>
       </c>
       <c r="I290" s="9"/>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>23</v>
       </c>
@@ -17803,15 +17797,15 @@
         <v>2</v>
       </c>
       <c r="G291" s="9">
-        <f>73/46</f>
-        <v>1.5869565217391304</v>
+        <f>73-39</f>
+        <v>34</v>
       </c>
       <c r="H291" s="9">
         <v>28729</v>
       </c>
       <c r="I291" s="9"/>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>23</v>
       </c>
@@ -17831,15 +17825,15 @@
         <v>3</v>
       </c>
       <c r="G292" s="9">
-        <f>57/46</f>
-        <v>1.2391304347826086</v>
+        <f>57-39</f>
+        <v>18</v>
       </c>
       <c r="H292" s="9">
         <v>9854</v>
       </c>
       <c r="I292" s="6"/>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
         <v>23</v>
       </c>
@@ -17859,15 +17853,15 @@
         <v>4</v>
       </c>
       <c r="G293" s="9">
-        <f>84/46</f>
-        <v>1.826086956521739</v>
+        <f>84-56</f>
+        <v>28</v>
       </c>
       <c r="H293" s="9">
         <v>26012</v>
       </c>
       <c r="I293" s="6"/>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>23</v>
       </c>
@@ -17887,15 +17881,15 @@
         <v>5</v>
       </c>
       <c r="G294" s="9">
-        <f>58/46</f>
-        <v>1.2608695652173914</v>
+        <f>58-46</f>
+        <v>12</v>
       </c>
       <c r="H294" s="9">
         <v>19950</v>
       </c>
       <c r="I294" s="6"/>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>23</v>
       </c>
@@ -17915,15 +17909,15 @@
         <v>6</v>
       </c>
       <c r="G295" s="9">
-        <f>68/46</f>
-        <v>1.4782608695652173</v>
+        <f>68-55</f>
+        <v>13</v>
       </c>
       <c r="H295" s="9">
         <v>38585</v>
       </c>
       <c r="I295" s="6"/>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>23</v>
       </c>
@@ -17943,15 +17937,15 @@
         <v>7</v>
       </c>
       <c r="G296" s="9">
-        <f>52/46</f>
-        <v>1.1304347826086956</v>
+        <f>52-54</f>
+        <v>-2</v>
       </c>
       <c r="H296" s="9">
         <v>14772</v>
       </c>
       <c r="I296" s="6"/>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>23</v>
       </c>
@@ -17971,15 +17965,15 @@
         <v>8</v>
       </c>
       <c r="G297" s="9">
-        <f>57/46</f>
-        <v>1.2391304347826086</v>
+        <f>57-50</f>
+        <v>7</v>
       </c>
       <c r="H297" s="9">
         <v>14767</v>
       </c>
       <c r="I297" s="6"/>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
         <v>23</v>
       </c>
@@ -17999,15 +17993,15 @@
         <v>9</v>
       </c>
       <c r="G298" s="9">
-        <f>59/46</f>
-        <v>1.2826086956521738</v>
+        <f>59-53</f>
+        <v>6</v>
       </c>
       <c r="H298" s="9">
         <v>23111</v>
       </c>
       <c r="I298" s="6"/>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
         <v>23</v>
       </c>
@@ -18027,15 +18021,15 @@
         <v>10</v>
       </c>
       <c r="G299" s="9">
-        <f>68/46</f>
-        <v>1.4782608695652173</v>
+        <f>68-64</f>
+        <v>4</v>
       </c>
       <c r="H299" s="9">
         <v>16821</v>
       </c>
       <c r="I299" s="6"/>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
         <v>23</v>
       </c>
@@ -18055,15 +18049,15 @@
         <v>11</v>
       </c>
       <c r="G300" s="9">
-        <f>56/46</f>
-        <v>1.2173913043478262</v>
+        <f>56-53</f>
+        <v>3</v>
       </c>
       <c r="H300" s="9">
         <v>19172</v>
       </c>
       <c r="I300" s="6"/>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
         <v>23</v>
       </c>
@@ -18083,15 +18077,15 @@
         <v>12</v>
       </c>
       <c r="G301" s="9">
-        <f>45/46</f>
-        <v>0.97826086956521741</v>
+        <f>45-59</f>
+        <v>-14</v>
       </c>
       <c r="H301" s="9">
         <v>15858</v>
       </c>
       <c r="I301" s="6"/>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
         <v>23</v>
       </c>
@@ -18111,15 +18105,15 @@
         <v>13</v>
       </c>
       <c r="G302" s="9">
-        <f>57/46</f>
-        <v>1.2391304347826086</v>
+        <f>57-54</f>
+        <v>3</v>
       </c>
       <c r="H302" s="9">
         <v>26504</v>
       </c>
       <c r="I302" s="6"/>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
         <v>23</v>
       </c>
@@ -18139,15 +18133,15 @@
         <v>14</v>
       </c>
       <c r="G303" s="9">
-        <f>55/46</f>
-        <v>1.1956521739130435</v>
+        <f>55-56</f>
+        <v>-1</v>
       </c>
       <c r="H303" s="9">
         <v>20351</v>
       </c>
       <c r="I303" s="6"/>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>23</v>
       </c>
@@ -18167,15 +18161,15 @@
         <v>15</v>
       </c>
       <c r="G304" s="9">
-        <f>51/46</f>
-        <v>1.1086956521739131</v>
+        <f>51-61</f>
+        <v>-10</v>
       </c>
       <c r="H304" s="9">
         <v>17973</v>
       </c>
       <c r="I304" s="6"/>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>23</v>
       </c>
@@ -18195,8 +18189,8 @@
         <v>16</v>
       </c>
       <c r="G305" s="9">
-        <f>55/46</f>
-        <v>1.1956521739130435</v>
+        <f>55-54</f>
+        <v>1</v>
       </c>
       <c r="H305" s="9">
         <v>20570</v>
@@ -18206,7 +18200,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
         <v>23</v>
       </c>
@@ -18226,15 +18220,15 @@
         <v>17</v>
       </c>
       <c r="G306" s="9">
-        <f>47/46</f>
-        <v>1.0217391304347827</v>
+        <f>47-58</f>
+        <v>-11</v>
       </c>
       <c r="H306" s="9">
         <v>16758</v>
       </c>
       <c r="I306" s="6"/>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
         <v>23</v>
       </c>
@@ -18254,15 +18248,15 @@
         <v>18</v>
       </c>
       <c r="G307" s="9">
-        <f>47/46</f>
-        <v>1.0217391304347827</v>
+        <f>47-62</f>
+        <v>-15</v>
       </c>
       <c r="H307" s="9">
         <v>18978</v>
       </c>
       <c r="I307" s="6"/>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
         <v>23</v>
       </c>
@@ -18282,15 +18276,15 @@
         <v>19</v>
       </c>
       <c r="G308" s="9">
-        <f>49/46</f>
-        <v>1.0652173913043479</v>
+        <f>49-60</f>
+        <v>-11</v>
       </c>
       <c r="H308" s="9">
         <v>10515</v>
       </c>
       <c r="I308" s="6"/>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
         <v>23</v>
       </c>
@@ -18310,15 +18304,15 @@
         <v>20</v>
       </c>
       <c r="G309" s="9">
-        <f>44/46</f>
-        <v>0.95652173913043481</v>
+        <f>44-71</f>
+        <v>-27</v>
       </c>
       <c r="H309" s="9">
         <v>14977</v>
       </c>
       <c r="I309" s="6"/>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
         <v>23</v>
       </c>
@@ -18338,15 +18332,15 @@
         <v>21</v>
       </c>
       <c r="G310" s="9">
-        <f>41/46</f>
-        <v>0.89130434782608692</v>
+        <f>41-58</f>
+        <v>-17</v>
       </c>
       <c r="H310" s="9">
         <v>19020</v>
       </c>
       <c r="I310" s="6"/>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
         <v>23</v>
       </c>
@@ -18366,15 +18360,15 @@
         <v>22</v>
       </c>
       <c r="G311" s="9">
-        <f>46/46</f>
-        <v>1</v>
+        <f>46-68</f>
+        <v>-22</v>
       </c>
       <c r="H311" s="9">
         <v>14027</v>
       </c>
       <c r="I311" s="6"/>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
         <v>23</v>
       </c>
@@ -18394,8 +18388,8 @@
         <v>23</v>
       </c>
       <c r="G312" s="9">
-        <f>48/46</f>
-        <v>1.0434782608695652</v>
+        <f>48-72</f>
+        <v>-24</v>
       </c>
       <c r="H312" s="9">
         <v>11805</v>
@@ -18405,7 +18399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
         <v>23</v>
       </c>
@@ -18425,8 +18419,8 @@
         <v>24</v>
       </c>
       <c r="G313" s="9">
-        <f>38/46</f>
-        <v>0.82608695652173914</v>
+        <f>38-65</f>
+        <v>-27</v>
       </c>
       <c r="H313" s="9">
         <v>12210</v>

--- a/data2.xlsx
+++ b/data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Desktop/Uni/6. sem/Bachelorprojekt/bachelor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB06984-6ECC-8045-A0B7-3E1BE40DB00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06376CC9-4F45-1C46-80FD-37D3BA7922E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{21EF8D0E-709A-5849-95F5-8BD874E64F79}"/>
   </bookViews>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="84">
   <si>
     <t>season</t>
   </si>
@@ -595,9 +595,6 @@
   </si>
   <si>
     <t>tilskuere</t>
-  </si>
-  <si>
-    <t>mål pr kamp</t>
   </si>
   <si>
     <t>maalforskel</t>
@@ -1349,7 +1346,7 @@
     <tableColumn id="4" xr3:uid="{ED2BC751-304B-5545-BB4B-F5204DBCF2BC}" name="wage" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{4A9390E6-D036-0846-9DF0-CDBADC0CE366}" name="points" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{E4BEAB79-A63F-8F4A-9F9B-0F759C48922D}" name="placering" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{4B50620F-4E96-9346-AB30-51523F2ED029}" name="mål pr kamp" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{4B50620F-4E96-9346-AB30-51523F2ED029}" name="maalforskel" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{E161F9ED-52DF-434C-8F94-B383F794ED6D}" name="tilskuere" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{C0537F2F-0086-374F-BA04-B4974DE7DD29}" name="transfers (ind-ud)" dataDxfId="0"/>
   </tableColumns>
@@ -1736,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>82</v>
@@ -9700,14 +9697,15 @@
   <dimension ref="A1:P313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
